--- a/output/OUTPUT5_A06.xlsx
+++ b/output/OUTPUT5_A06.xlsx
@@ -170,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -229,6 +229,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -243,22 +246,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -270,13 +267,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -678,9 +672,9 @@
   </sheetPr>
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B30" sqref="B30:AD30"/>
+      <selection pane="topRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -782,7 +776,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="inlineStr">
+      <c r="A2" s="21" t="inlineStr">
         <is>
           <t>L
 E
@@ -801,251 +795,259 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>06021G</t>
+          <t>06272G</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>06022G</t>
+          <t>06271G</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>06041G</t>
+          <t>06252G</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>06042G</t>
+          <t>06251G</t>
         </is>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>06061G</t>
+          <t>06232G</t>
         </is>
       </c>
       <c r="H2" s="7" t="inlineStr">
         <is>
-          <t>06062G</t>
+          <t>06231G</t>
         </is>
       </c>
       <c r="I2" s="7" t="inlineStr">
         <is>
-          <t>06081G</t>
+          <t>06212G</t>
         </is>
       </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
-          <t>06082G</t>
+          <t>06211G</t>
         </is>
       </c>
       <c r="K2" s="7" t="inlineStr">
         <is>
-          <t>06101G</t>
+          <t>06192G</t>
         </is>
       </c>
       <c r="L2" s="7" t="inlineStr">
         <is>
-          <t>06102G</t>
+          <t>06191G</t>
         </is>
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
-          <t>06121G</t>
+          <t>06172G</t>
         </is>
       </c>
       <c r="N2" s="7" t="inlineStr">
         <is>
-          <t>06122G</t>
+          <t>06171G</t>
         </is>
       </c>
       <c r="O2" s="7" t="inlineStr">
         <is>
-          <t>06141G</t>
+          <t>06152G</t>
         </is>
       </c>
       <c r="P2" s="7" t="inlineStr">
         <is>
-          <t>06142G</t>
+          <t>06151G</t>
         </is>
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>06161G</t>
+          <t>06132G</t>
         </is>
       </c>
       <c r="R2" s="7" t="inlineStr">
         <is>
-          <t>06162G</t>
+          <t>06131G</t>
         </is>
       </c>
       <c r="S2" s="7" t="inlineStr">
         <is>
-          <t>06181G</t>
+          <t>06112G</t>
         </is>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
-          <t>06182G</t>
+          <t>06111G</t>
         </is>
       </c>
       <c r="U2" s="7" t="inlineStr">
         <is>
-          <t>06206G</t>
+          <t>06092G</t>
         </is>
       </c>
       <c r="V2" s="7" t="inlineStr">
         <is>
-          <t>06206G</t>
+          <t>06091G</t>
         </is>
       </c>
       <c r="W2" s="7" t="inlineStr">
         <is>
-          <t>06221G</t>
+          <t>06072G</t>
         </is>
       </c>
       <c r="X2" s="7" t="inlineStr">
         <is>
-          <t>06222G</t>
+          <t>06071G</t>
         </is>
       </c>
       <c r="Y2" s="7" t="inlineStr">
         <is>
-          <t>06241G</t>
+          <t>06052G</t>
         </is>
       </c>
       <c r="Z2" s="7" t="inlineStr">
         <is>
-          <t>06242G</t>
+          <t>06051G</t>
         </is>
       </c>
       <c r="AA2" s="7" t="inlineStr">
         <is>
-          <t>06261G</t>
+          <t>06032G</t>
         </is>
       </c>
       <c r="AB2" s="7" t="inlineStr">
         <is>
-          <t>06262G</t>
+          <t>06031G</t>
         </is>
       </c>
       <c r="AC2" s="7" t="inlineStr">
         <is>
-          <t>06281G</t>
+          <t>06012G</t>
         </is>
       </c>
       <c r="AD2" s="7" t="inlineStr">
         <is>
-          <t>06282G</t>
+          <t>06011G</t>
         </is>
       </c>
     </row>
     <row r="3" ht="35" customHeight="1">
-      <c r="A3" s="32" t="n"/>
-      <c r="B3" s="32" t="n"/>
-      <c r="C3" s="33" t="inlineStr">
-        <is>
-          <t>B1008635-</t>
-        </is>
-      </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="inlineStr">
-        <is>
-          <t>B2010502-</t>
-        </is>
-      </c>
-      <c r="F3" s="34" t="inlineStr">
-        <is>
-          <t>B1006362-</t>
-        </is>
-      </c>
-      <c r="G3" s="34" t="n"/>
-      <c r="H3" s="34" t="inlineStr">
-        <is>
-          <t>B2000627-</t>
-        </is>
-      </c>
-      <c r="I3" s="34" t="n"/>
-      <c r="J3" s="34" t="inlineStr">
-        <is>
-          <t>T2001444-</t>
-        </is>
-      </c>
-      <c r="K3" s="34" t="n"/>
-      <c r="L3" s="34" t="inlineStr">
-        <is>
-          <t>B1007518-</t>
-        </is>
-      </c>
-      <c r="M3" s="34" t="n"/>
-      <c r="N3" s="34" t="n"/>
-      <c r="O3" s="34" t="inlineStr">
-        <is>
-          <t>B1005972-</t>
-        </is>
-      </c>
-      <c r="P3" s="34" t="inlineStr">
-        <is>
-          <t>B1007881-</t>
-        </is>
-      </c>
-      <c r="Q3" s="34" t="inlineStr">
-        <is>
-          <t>T2001110-</t>
-        </is>
-      </c>
-      <c r="R3" s="34" t="inlineStr">
-        <is>
-          <t>B1006379-</t>
-        </is>
-      </c>
-      <c r="S3" s="34" t="inlineStr">
-        <is>
-          <t>B2000599-</t>
-        </is>
-      </c>
-      <c r="T3" s="34" t="inlineStr">
-        <is>
-          <t>t1000504-</t>
-        </is>
-      </c>
-      <c r="U3" s="34" t="n"/>
-      <c r="V3" s="34" t="n"/>
-      <c r="W3" s="34" t="inlineStr">
-        <is>
-          <t>M1015603-</t>
-        </is>
-      </c>
-      <c r="X3" s="34" t="inlineStr">
-        <is>
-          <t>B1006212-</t>
-        </is>
-      </c>
-      <c r="Y3" s="34" t="inlineStr">
-        <is>
-          <t>P1232644-</t>
-        </is>
-      </c>
-      <c r="Z3" s="34" t="inlineStr">
-        <is>
-          <t>B2000258-</t>
-        </is>
-      </c>
-      <c r="AA3" s="34" t="inlineStr">
-        <is>
-          <t>B1006519-</t>
-        </is>
-      </c>
-      <c r="AB3" s="34" t="n"/>
-      <c r="AC3" s="34" t="n"/>
-      <c r="AD3" s="34" t="inlineStr">
-        <is>
-          <t>E1000184-</t>
+      <c r="A3" s="31" t="n"/>
+      <c r="B3" s="31" t="n"/>
+      <c r="C3" s="32" t="inlineStr">
+        <is>
+          <t>B1004661-</t>
+        </is>
+      </c>
+      <c r="D3" s="32" t="inlineStr">
+        <is>
+          <t>b1007425-</t>
+        </is>
+      </c>
+      <c r="E3" s="32" t="inlineStr">
+        <is>
+          <t>B2000146-</t>
+        </is>
+      </c>
+      <c r="F3" s="33" t="n"/>
+      <c r="G3" s="33" t="inlineStr">
+        <is>
+          <t>B2000155-</t>
+        </is>
+      </c>
+      <c r="H3" s="33" t="inlineStr">
+        <is>
+          <t>b2011074-</t>
+        </is>
+      </c>
+      <c r="I3" s="33" t="inlineStr">
+        <is>
+          <t>B2000605-</t>
+        </is>
+      </c>
+      <c r="J3" s="33" t="inlineStr">
+        <is>
+          <t>B2011344-</t>
+        </is>
+      </c>
+      <c r="K3" s="33" t="inlineStr">
+        <is>
+          <t>B2010364-</t>
+        </is>
+      </c>
+      <c r="L3" s="33" t="n"/>
+      <c r="M3" s="33" t="inlineStr">
+        <is>
+          <t>B2000586-</t>
+        </is>
+      </c>
+      <c r="N3" s="33" t="inlineStr">
+        <is>
+          <t>B1005403-</t>
+        </is>
+      </c>
+      <c r="O3" s="33" t="inlineStr">
+        <is>
+          <t>b1007909-</t>
+        </is>
+      </c>
+      <c r="P3" s="33" t="inlineStr">
+        <is>
+          <t>B1007522-</t>
+        </is>
+      </c>
+      <c r="Q3" s="33" t="inlineStr">
+        <is>
+          <t>B2000581-</t>
+        </is>
+      </c>
+      <c r="R3" s="33" t="inlineStr">
+        <is>
+          <t>B2000691-</t>
+        </is>
+      </c>
+      <c r="S3" s="33" t="inlineStr">
+        <is>
+          <t>B2000597-</t>
+        </is>
+      </c>
+      <c r="T3" s="33" t="inlineStr">
+        <is>
+          <t>T1000324-</t>
+        </is>
+      </c>
+      <c r="U3" s="33" t="inlineStr">
+        <is>
+          <t>t2001612-</t>
+        </is>
+      </c>
+      <c r="V3" s="33" t="n"/>
+      <c r="W3" s="33" t="n"/>
+      <c r="X3" s="33" t="n"/>
+      <c r="Y3" s="33" t="n"/>
+      <c r="Z3" s="33" t="n"/>
+      <c r="AA3" s="33" t="n"/>
+      <c r="AB3" s="33" t="inlineStr">
+        <is>
+          <t>B1006688-</t>
+        </is>
+      </c>
+      <c r="AC3" s="33" t="inlineStr">
+        <is>
+          <t>B1006516-</t>
+        </is>
+      </c>
+      <c r="AD3" s="33" t="inlineStr">
+        <is>
+          <t>B1001257-</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n"/>
+      <c r="A4" s="22" t="n"/>
       <c r="B4" s="10" t="inlineStr">
         <is>
           <t>F</t>
@@ -1053,279 +1055,283 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>06021F</t>
+          <t>06272F</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>06022F</t>
+          <t>06271F</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>06041F</t>
+          <t>06252F</t>
         </is>
       </c>
       <c r="F4" s="7" t="inlineStr">
         <is>
-          <t>06042F</t>
+          <t>06251F</t>
         </is>
       </c>
       <c r="G4" s="7" t="inlineStr">
         <is>
-          <t>06061F</t>
+          <t>06232F</t>
         </is>
       </c>
       <c r="H4" s="7" t="inlineStr">
         <is>
-          <t>06062F</t>
+          <t>06231F</t>
         </is>
       </c>
       <c r="I4" s="7" t="inlineStr">
         <is>
-          <t>06081F</t>
+          <t>06212F</t>
         </is>
       </c>
       <c r="J4" s="7" t="inlineStr">
         <is>
-          <t>06082F</t>
+          <t>06211F</t>
         </is>
       </c>
       <c r="K4" s="7" t="inlineStr">
         <is>
-          <t>06101F</t>
+          <t>06192F</t>
         </is>
       </c>
       <c r="L4" s="7" t="inlineStr">
         <is>
-          <t>06102F</t>
+          <t>06191F</t>
         </is>
       </c>
       <c r="M4" s="7" t="inlineStr">
         <is>
-          <t>06121F</t>
+          <t>06172F</t>
         </is>
       </c>
       <c r="N4" s="7" t="inlineStr">
         <is>
-          <t>06122F</t>
+          <t>06171F</t>
         </is>
       </c>
       <c r="O4" s="7" t="inlineStr">
         <is>
-          <t>06141F</t>
+          <t>06152F</t>
         </is>
       </c>
       <c r="P4" s="7" t="inlineStr">
         <is>
-          <t>06142F</t>
+          <t>06151F</t>
         </is>
       </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>06161F</t>
+          <t>06132F</t>
         </is>
       </c>
       <c r="R4" s="7" t="inlineStr">
         <is>
-          <t>06162F</t>
+          <t>06131F</t>
         </is>
       </c>
       <c r="S4" s="7" t="inlineStr">
         <is>
-          <t>06181F</t>
+          <t>06112F</t>
         </is>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
-          <t>06182F</t>
+          <t>06111F</t>
         </is>
       </c>
       <c r="U4" s="7" t="inlineStr">
         <is>
-          <t>06206F</t>
+          <t>06092F</t>
         </is>
       </c>
       <c r="V4" s="7" t="inlineStr">
         <is>
-          <t>06206F</t>
+          <t>06091F</t>
         </is>
       </c>
       <c r="W4" s="7" t="inlineStr">
         <is>
-          <t>06221F</t>
+          <t>06072F</t>
         </is>
       </c>
       <c r="X4" s="7" t="inlineStr">
         <is>
-          <t>06222F</t>
+          <t>06071F</t>
         </is>
       </c>
       <c r="Y4" s="7" t="inlineStr">
         <is>
-          <t>06241F</t>
+          <t>06052F</t>
         </is>
       </c>
       <c r="Z4" s="7" t="inlineStr">
         <is>
-          <t>06242F</t>
+          <t>06051F</t>
         </is>
       </c>
       <c r="AA4" s="7" t="inlineStr">
         <is>
-          <t>06261F</t>
+          <t>06032F</t>
         </is>
       </c>
       <c r="AB4" s="7" t="inlineStr">
         <is>
-          <t>06262F</t>
+          <t>06031F</t>
         </is>
       </c>
       <c r="AC4" s="7" t="inlineStr">
         <is>
-          <t>06281F</t>
+          <t>06012F</t>
         </is>
       </c>
       <c r="AD4" s="7" t="inlineStr">
         <is>
-          <t>06282F</t>
+          <t>06011F</t>
         </is>
       </c>
     </row>
     <row r="5" ht="35" customHeight="1">
-      <c r="A5" s="32" t="n"/>
-      <c r="B5" s="32" t="n"/>
-      <c r="C5" s="33" t="inlineStr">
-        <is>
-          <t>B1008035-</t>
-        </is>
-      </c>
-      <c r="D5" s="33" t="inlineStr">
-        <is>
-          <t>P1229830-</t>
-        </is>
-      </c>
-      <c r="E5" s="33" t="inlineStr">
-        <is>
-          <t>B1007997-</t>
-        </is>
-      </c>
-      <c r="F5" s="34" t="inlineStr">
-        <is>
-          <t>T2001700-</t>
-        </is>
-      </c>
-      <c r="G5" s="34" t="inlineStr">
-        <is>
-          <t>B2000625-</t>
-        </is>
-      </c>
-      <c r="H5" s="34" t="inlineStr">
-        <is>
-          <t>M1015600-</t>
-        </is>
-      </c>
-      <c r="I5" s="34" t="inlineStr">
-        <is>
-          <t>b2000351-</t>
-        </is>
-      </c>
-      <c r="J5" s="34" t="inlineStr">
-        <is>
-          <t>B1007320-</t>
-        </is>
-      </c>
-      <c r="K5" s="34" t="inlineStr">
-        <is>
-          <t>b2000424-</t>
-        </is>
-      </c>
-      <c r="L5" s="34" t="inlineStr">
-        <is>
-          <t>B2011095-</t>
-        </is>
-      </c>
-      <c r="M5" s="34" t="inlineStr">
-        <is>
-          <t>b1007644-</t>
-        </is>
-      </c>
-      <c r="N5" s="34" t="inlineStr">
-        <is>
-          <t>B1007391-</t>
-        </is>
-      </c>
-      <c r="O5" s="34" t="inlineStr">
-        <is>
-          <t>b2000350-</t>
-        </is>
-      </c>
-      <c r="P5" s="34" t="inlineStr">
-        <is>
-          <t>B1000264-</t>
-        </is>
-      </c>
-      <c r="Q5" s="34" t="inlineStr">
-        <is>
-          <t>b1007426-</t>
-        </is>
-      </c>
-      <c r="R5" s="34" t="inlineStr">
-        <is>
-          <t>b1008697-</t>
-        </is>
-      </c>
-      <c r="S5" s="34" t="inlineStr">
-        <is>
-          <t>P1223700-</t>
-        </is>
-      </c>
-      <c r="T5" s="34" t="inlineStr">
-        <is>
-          <t>B2010091-</t>
-        </is>
-      </c>
-      <c r="U5" s="34" t="n"/>
-      <c r="V5" s="34" t="n"/>
-      <c r="W5" s="34" t="inlineStr">
-        <is>
-          <t>B2009958-</t>
-        </is>
-      </c>
-      <c r="X5" s="34" t="inlineStr">
-        <is>
-          <t>B2000961-</t>
-        </is>
-      </c>
-      <c r="Y5" s="34" t="inlineStr">
-        <is>
-          <t>B2010805-</t>
-        </is>
-      </c>
-      <c r="Z5" s="34" t="inlineStr">
-        <is>
-          <t>B2010025-</t>
-        </is>
-      </c>
-      <c r="AA5" s="34" t="inlineStr">
-        <is>
-          <t>B2009899-</t>
-        </is>
-      </c>
-      <c r="AB5" s="34" t="inlineStr">
-        <is>
-          <t>B1004298-</t>
-        </is>
-      </c>
-      <c r="AC5" s="34" t="n"/>
-      <c r="AD5" s="34" t="inlineStr">
-        <is>
-          <t>B2010117-</t>
+      <c r="A5" s="31" t="n"/>
+      <c r="B5" s="31" t="n"/>
+      <c r="C5" s="32" t="inlineStr">
+        <is>
+          <t>B2010022-</t>
+        </is>
+      </c>
+      <c r="D5" s="32" t="inlineStr">
+        <is>
+          <t>B1008269-</t>
+        </is>
+      </c>
+      <c r="E5" s="32" t="inlineStr">
+        <is>
+          <t>B2010125-</t>
+        </is>
+      </c>
+      <c r="F5" s="33" t="inlineStr">
+        <is>
+          <t>B2010640-</t>
+        </is>
+      </c>
+      <c r="G5" s="33" t="inlineStr">
+        <is>
+          <t>b1009029-</t>
+        </is>
+      </c>
+      <c r="H5" s="33" t="n"/>
+      <c r="I5" s="33" t="inlineStr">
+        <is>
+          <t>B2010737-</t>
+        </is>
+      </c>
+      <c r="J5" s="33" t="inlineStr">
+        <is>
+          <t>B1008473-</t>
+        </is>
+      </c>
+      <c r="K5" s="33" t="inlineStr">
+        <is>
+          <t>P1051739-</t>
+        </is>
+      </c>
+      <c r="L5" s="33" t="inlineStr">
+        <is>
+          <t>T1000823-</t>
+        </is>
+      </c>
+      <c r="M5" s="33" t="inlineStr">
+        <is>
+          <t>T1000759-</t>
+        </is>
+      </c>
+      <c r="N5" s="33" t="inlineStr">
+        <is>
+          <t>B2011235-</t>
+        </is>
+      </c>
+      <c r="O5" s="33" t="inlineStr">
+        <is>
+          <t>T1001020-</t>
+        </is>
+      </c>
+      <c r="P5" s="33" t="inlineStr">
+        <is>
+          <t>M1009558-</t>
+        </is>
+      </c>
+      <c r="Q5" s="33" t="inlineStr">
+        <is>
+          <t>T2002787-</t>
+        </is>
+      </c>
+      <c r="R5" s="33" t="inlineStr">
+        <is>
+          <t>B2010606-</t>
+        </is>
+      </c>
+      <c r="S5" s="33" t="inlineStr">
+        <is>
+          <t>B2010609-</t>
+        </is>
+      </c>
+      <c r="T5" s="33" t="inlineStr">
+        <is>
+          <t>B2000550-</t>
+        </is>
+      </c>
+      <c r="U5" s="33" t="inlineStr">
+        <is>
+          <t>B1005316-</t>
+        </is>
+      </c>
+      <c r="V5" s="33" t="inlineStr">
+        <is>
+          <t>t1000025-</t>
+        </is>
+      </c>
+      <c r="W5" s="33" t="inlineStr">
+        <is>
+          <t>B1007265-</t>
+        </is>
+      </c>
+      <c r="X5" s="33" t="inlineStr">
+        <is>
+          <t>B1007728-</t>
+        </is>
+      </c>
+      <c r="Y5" s="33" t="inlineStr">
+        <is>
+          <t>B1001269-</t>
+        </is>
+      </c>
+      <c r="Z5" s="33" t="inlineStr">
+        <is>
+          <t>B1008572-</t>
+        </is>
+      </c>
+      <c r="AA5" s="33" t="inlineStr">
+        <is>
+          <t>m1016854-</t>
+        </is>
+      </c>
+      <c r="AB5" s="33" t="inlineStr">
+        <is>
+          <t>B2012305-</t>
+        </is>
+      </c>
+      <c r="AC5" s="33" t="n"/>
+      <c r="AD5" s="33" t="inlineStr">
+        <is>
+          <t>B1009012-</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n"/>
+      <c r="A6" s="22" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
           <t>E</t>
@@ -1333,272 +1339,291 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>06021E</t>
+          <t>06272E</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>06022E</t>
+          <t>06271E</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>06041E</t>
+          <t>06252E</t>
         </is>
       </c>
       <c r="F6" s="7" t="inlineStr">
         <is>
-          <t>06042E</t>
+          <t>06251E</t>
         </is>
       </c>
       <c r="G6" s="7" t="inlineStr">
         <is>
-          <t>06061E</t>
+          <t>06232E</t>
         </is>
       </c>
       <c r="H6" s="7" t="inlineStr">
         <is>
-          <t>06062E</t>
+          <t>06231E</t>
         </is>
       </c>
       <c r="I6" s="7" t="inlineStr">
         <is>
-          <t>06081E</t>
+          <t>06212E</t>
         </is>
       </c>
       <c r="J6" s="7" t="inlineStr">
         <is>
-          <t>06082E</t>
+          <t>06211E</t>
         </is>
       </c>
       <c r="K6" s="7" t="inlineStr">
         <is>
-          <t>06101E</t>
+          <t>06192E</t>
         </is>
       </c>
       <c r="L6" s="7" t="inlineStr">
         <is>
-          <t>06102E</t>
+          <t>06191E</t>
         </is>
       </c>
       <c r="M6" s="7" t="inlineStr">
         <is>
-          <t>06121E</t>
+          <t>06172E</t>
         </is>
       </c>
       <c r="N6" s="7" t="inlineStr">
         <is>
-          <t>06122E</t>
+          <t>06171E</t>
         </is>
       </c>
       <c r="O6" s="7" t="inlineStr">
         <is>
-          <t>06141E</t>
+          <t>06152E</t>
         </is>
       </c>
       <c r="P6" s="7" t="inlineStr">
         <is>
-          <t>06142E</t>
+          <t>06151E</t>
         </is>
       </c>
       <c r="Q6" s="7" t="inlineStr">
         <is>
-          <t>06161E</t>
+          <t>06132E</t>
         </is>
       </c>
       <c r="R6" s="7" t="inlineStr">
         <is>
-          <t>06162E</t>
+          <t>06131E</t>
         </is>
       </c>
       <c r="S6" s="7" t="inlineStr">
         <is>
-          <t>06181E</t>
+          <t>06112E</t>
         </is>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
-          <t>06182E</t>
+          <t>06111E</t>
         </is>
       </c>
       <c r="U6" s="7" t="inlineStr">
         <is>
-          <t>06206E</t>
+          <t>06092E</t>
         </is>
       </c>
       <c r="V6" s="7" t="inlineStr">
         <is>
-          <t>06206E</t>
+          <t>06091E</t>
         </is>
       </c>
       <c r="W6" s="7" t="inlineStr">
         <is>
-          <t>06221E</t>
+          <t>06072E</t>
         </is>
       </c>
       <c r="X6" s="7" t="inlineStr">
         <is>
-          <t>06222E</t>
+          <t>06071E</t>
         </is>
       </c>
       <c r="Y6" s="7" t="inlineStr">
         <is>
-          <t>06241E</t>
+          <t>06052E</t>
         </is>
       </c>
       <c r="Z6" s="7" t="inlineStr">
         <is>
-          <t>06242E</t>
+          <t>06051E</t>
         </is>
       </c>
       <c r="AA6" s="7" t="inlineStr">
         <is>
-          <t>06261E</t>
+          <t>06032E</t>
         </is>
       </c>
       <c r="AB6" s="7" t="inlineStr">
         <is>
-          <t>06262E</t>
+          <t>06031E</t>
         </is>
       </c>
       <c r="AC6" s="7" t="inlineStr">
         <is>
-          <t>06281E</t>
+          <t>06012E</t>
         </is>
       </c>
       <c r="AD6" s="7" t="inlineStr">
         <is>
-          <t>06282E</t>
+          <t>06011E</t>
         </is>
       </c>
     </row>
     <row r="7" ht="35" customHeight="1">
-      <c r="A7" s="32" t="n"/>
-      <c r="B7" s="32" t="n"/>
-      <c r="C7" s="33" t="inlineStr">
-        <is>
-          <t>B1008571-</t>
-        </is>
-      </c>
-      <c r="D7" s="33" t="inlineStr">
-        <is>
-          <t>B1005039-</t>
-        </is>
-      </c>
-      <c r="E7" s="35" t="inlineStr">
-        <is>
-          <t>t1000030-
-t2000221-</t>
-        </is>
-      </c>
-      <c r="F7" s="34" t="inlineStr">
-        <is>
-          <t>b1008671-</t>
-        </is>
-      </c>
-      <c r="G7" s="34" t="inlineStr">
-        <is>
-          <t>B2010591-</t>
-        </is>
-      </c>
-      <c r="H7" s="34" t="inlineStr">
-        <is>
-          <t>b1007397-</t>
-        </is>
-      </c>
-      <c r="I7" s="34" t="inlineStr">
-        <is>
-          <t>B1007664-</t>
-        </is>
-      </c>
-      <c r="J7" s="34" t="inlineStr">
-        <is>
-          <t>B2010698-</t>
-        </is>
-      </c>
-      <c r="K7" s="34" t="n"/>
-      <c r="L7" s="34" t="inlineStr">
-        <is>
-          <t>B2000737-</t>
-        </is>
-      </c>
-      <c r="M7" s="34" t="inlineStr">
-        <is>
-          <t>B2000122-</t>
-        </is>
-      </c>
-      <c r="N7" s="34" t="inlineStr">
-        <is>
-          <t>B1006397-</t>
-        </is>
-      </c>
-      <c r="O7" s="34" t="n"/>
-      <c r="P7" s="34" t="inlineStr">
-        <is>
-          <t>E1000165-</t>
-        </is>
-      </c>
-      <c r="Q7" s="34" t="inlineStr">
-        <is>
-          <t>B2000509-</t>
-        </is>
-      </c>
-      <c r="R7" s="34" t="n"/>
-      <c r="S7" s="34" t="inlineStr">
-        <is>
-          <t>B1004110-</t>
-        </is>
-      </c>
-      <c r="T7" s="34" t="inlineStr">
-        <is>
-          <t>B1006366-</t>
-        </is>
-      </c>
-      <c r="U7" s="34" t="n"/>
-      <c r="V7" s="34" t="n"/>
-      <c r="W7" s="34" t="inlineStr">
-        <is>
-          <t>B2010436-</t>
-        </is>
-      </c>
-      <c r="X7" s="34" t="inlineStr">
-        <is>
-          <t>B2010437-</t>
-        </is>
-      </c>
-      <c r="Y7" s="34" t="inlineStr">
-        <is>
-          <t>B2000715-</t>
-        </is>
-      </c>
-      <c r="Z7" s="34" t="inlineStr">
-        <is>
-          <t>B2010432-</t>
-        </is>
-      </c>
-      <c r="AA7" s="34" t="inlineStr">
-        <is>
-          <t>B2000461-</t>
-        </is>
-      </c>
-      <c r="AB7" s="34" t="inlineStr">
-        <is>
-          <t>B1006363-</t>
-        </is>
-      </c>
-      <c r="AC7" s="34" t="inlineStr">
-        <is>
-          <t>B1000267-</t>
-        </is>
-      </c>
-      <c r="AD7" s="34" t="inlineStr">
-        <is>
-          <t>B1008327-</t>
+      <c r="A7" s="31" t="n"/>
+      <c r="B7" s="31" t="n"/>
+      <c r="C7" s="32" t="inlineStr">
+        <is>
+          <t>X1000121-</t>
+        </is>
+      </c>
+      <c r="D7" s="32" t="inlineStr">
+        <is>
+          <t>B2010659-</t>
+        </is>
+      </c>
+      <c r="E7" s="32" t="inlineStr">
+        <is>
+          <t>B2009915-</t>
+        </is>
+      </c>
+      <c r="F7" s="33" t="inlineStr">
+        <is>
+          <t>B2009916-</t>
+        </is>
+      </c>
+      <c r="G7" s="33" t="inlineStr">
+        <is>
+          <t>b1008481-</t>
+        </is>
+      </c>
+      <c r="H7" s="33" t="inlineStr">
+        <is>
+          <t>B2010692-</t>
+        </is>
+      </c>
+      <c r="I7" s="33" t="inlineStr">
+        <is>
+          <t>B2000837-</t>
+        </is>
+      </c>
+      <c r="J7" s="33" t="inlineStr">
+        <is>
+          <t>t1000596-</t>
+        </is>
+      </c>
+      <c r="K7" s="33" t="inlineStr">
+        <is>
+          <t>B2010180-</t>
+        </is>
+      </c>
+      <c r="L7" s="33" t="inlineStr">
+        <is>
+          <t>T1000181-</t>
+        </is>
+      </c>
+      <c r="M7" s="33" t="inlineStr">
+        <is>
+          <t>B1007323-</t>
+        </is>
+      </c>
+      <c r="N7" s="33" t="inlineStr">
+        <is>
+          <t>m1015600-</t>
+        </is>
+      </c>
+      <c r="O7" s="33" t="inlineStr">
+        <is>
+          <t>B1006380-</t>
+        </is>
+      </c>
+      <c r="P7" s="33" t="inlineStr">
+        <is>
+          <t>B2010605-</t>
+        </is>
+      </c>
+      <c r="Q7" s="33" t="inlineStr">
+        <is>
+          <t>B2000858-</t>
+        </is>
+      </c>
+      <c r="R7" s="33" t="inlineStr">
+        <is>
+          <t>B2011474-</t>
+        </is>
+      </c>
+      <c r="S7" s="33" t="inlineStr">
+        <is>
+          <t>B1005532-</t>
+        </is>
+      </c>
+      <c r="T7" s="33" t="inlineStr">
+        <is>
+          <t>b2000633-</t>
+        </is>
+      </c>
+      <c r="U7" s="33" t="inlineStr">
+        <is>
+          <t>B2010571-</t>
+        </is>
+      </c>
+      <c r="V7" s="33" t="inlineStr">
+        <is>
+          <t>B1008479-</t>
+        </is>
+      </c>
+      <c r="W7" s="33" t="inlineStr">
+        <is>
+          <t>B1006428-</t>
+        </is>
+      </c>
+      <c r="X7" s="33" t="inlineStr">
+        <is>
+          <t>b1000185-</t>
+        </is>
+      </c>
+      <c r="Y7" s="33" t="inlineStr">
+        <is>
+          <t>m1001076-</t>
+        </is>
+      </c>
+      <c r="Z7" s="33" t="inlineStr">
+        <is>
+          <t>B2012310-</t>
+        </is>
+      </c>
+      <c r="AA7" s="33" t="inlineStr">
+        <is>
+          <t>b1007874-</t>
+        </is>
+      </c>
+      <c r="AB7" s="33" t="inlineStr">
+        <is>
+          <t>B1004256-</t>
+        </is>
+      </c>
+      <c r="AC7" s="33" t="inlineStr">
+        <is>
+          <t>B2010390-</t>
+        </is>
+      </c>
+      <c r="AD7" s="33" t="inlineStr">
+        <is>
+          <t>B2010614-</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n"/>
+      <c r="A8" s="22" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
           <t>D</t>
@@ -1606,283 +1631,291 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>06021D</t>
+          <t>06272D</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>06022D</t>
+          <t>06271D</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>06041D</t>
+          <t>06252D</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
         <is>
-          <t>06042D</t>
+          <t>06251D</t>
         </is>
       </c>
       <c r="G8" s="7" t="inlineStr">
         <is>
-          <t>06061D</t>
+          <t>06232D</t>
         </is>
       </c>
       <c r="H8" s="7" t="inlineStr">
         <is>
-          <t>06062D</t>
+          <t>06231D</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr">
         <is>
-          <t>06081D</t>
+          <t>06212D</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr">
         <is>
-          <t>06082D</t>
+          <t>06211D</t>
         </is>
       </c>
       <c r="K8" s="7" t="inlineStr">
         <is>
-          <t>06101D</t>
+          <t>06192D</t>
         </is>
       </c>
       <c r="L8" s="7" t="inlineStr">
         <is>
-          <t>06102D</t>
+          <t>06191D</t>
         </is>
       </c>
       <c r="M8" s="7" t="inlineStr">
         <is>
-          <t>06121D</t>
+          <t>06172D</t>
         </is>
       </c>
       <c r="N8" s="7" t="inlineStr">
         <is>
-          <t>06122D</t>
+          <t>06171D</t>
         </is>
       </c>
       <c r="O8" s="7" t="inlineStr">
         <is>
-          <t>06141D</t>
+          <t>06152D</t>
         </is>
       </c>
       <c r="P8" s="7" t="inlineStr">
         <is>
-          <t>06142D</t>
+          <t>06151D</t>
         </is>
       </c>
       <c r="Q8" s="7" t="inlineStr">
         <is>
-          <t>06161D</t>
+          <t>06132D</t>
         </is>
       </c>
       <c r="R8" s="7" t="inlineStr">
         <is>
-          <t>06162D</t>
+          <t>06131D</t>
         </is>
       </c>
       <c r="S8" s="7" t="inlineStr">
         <is>
-          <t>06181D</t>
+          <t>06112D</t>
         </is>
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
-          <t>06182D</t>
+          <t>06111D</t>
         </is>
       </c>
       <c r="U8" s="7" t="inlineStr">
         <is>
-          <t>06206D</t>
+          <t>06092D</t>
         </is>
       </c>
       <c r="V8" s="7" t="inlineStr">
         <is>
-          <t>06206D</t>
+          <t>06091D</t>
         </is>
       </c>
       <c r="W8" s="7" t="inlineStr">
         <is>
-          <t>06221D</t>
+          <t>06072D</t>
         </is>
       </c>
       <c r="X8" s="7" t="inlineStr">
         <is>
-          <t>06222D</t>
+          <t>06071D</t>
         </is>
       </c>
       <c r="Y8" s="7" t="inlineStr">
         <is>
-          <t>06241D</t>
+          <t>06052D</t>
         </is>
       </c>
       <c r="Z8" s="7" t="inlineStr">
         <is>
-          <t>06242D</t>
+          <t>06051D</t>
         </is>
       </c>
       <c r="AA8" s="7" t="inlineStr">
         <is>
-          <t>06261D</t>
+          <t>06032D</t>
         </is>
       </c>
       <c r="AB8" s="7" t="inlineStr">
         <is>
-          <t>06262D</t>
+          <t>06031D</t>
         </is>
       </c>
       <c r="AC8" s="7" t="inlineStr">
         <is>
-          <t>06281D</t>
+          <t>06012D</t>
         </is>
       </c>
       <c r="AD8" s="7" t="inlineStr">
         <is>
-          <t>06282D</t>
+          <t>06011D</t>
         </is>
       </c>
     </row>
     <row r="9" ht="35" customHeight="1">
-      <c r="A9" s="32" t="n"/>
-      <c r="B9" s="32" t="n"/>
-      <c r="C9" s="33" t="inlineStr">
-        <is>
-          <t>B1006398-</t>
-        </is>
-      </c>
-      <c r="D9" s="33" t="inlineStr">
-        <is>
-          <t>B1007373-</t>
-        </is>
-      </c>
-      <c r="E9" s="33" t="inlineStr">
-        <is>
-          <t>b2000335-</t>
-        </is>
-      </c>
-      <c r="F9" s="34" t="inlineStr">
-        <is>
-          <t>B1007396-</t>
-        </is>
-      </c>
-      <c r="G9" s="34" t="inlineStr">
-        <is>
-          <t>b1006464-</t>
-        </is>
-      </c>
-      <c r="H9" s="34" t="inlineStr">
-        <is>
-          <t>B2010071-</t>
-        </is>
-      </c>
-      <c r="I9" s="34" t="inlineStr">
-        <is>
-          <t>B2010457-</t>
-        </is>
-      </c>
-      <c r="J9" s="34" t="inlineStr">
-        <is>
-          <t>B1005048-</t>
-        </is>
-      </c>
-      <c r="K9" s="34" t="inlineStr">
-        <is>
-          <t>B1008626-</t>
-        </is>
-      </c>
-      <c r="L9" s="34" t="inlineStr">
-        <is>
-          <t>B2000375-</t>
-        </is>
-      </c>
-      <c r="M9" s="34" t="inlineStr">
-        <is>
-          <t>P1224711-</t>
-        </is>
-      </c>
-      <c r="N9" s="34" t="inlineStr">
-        <is>
-          <t>b1008212-</t>
-        </is>
-      </c>
-      <c r="O9" s="34" t="inlineStr">
-        <is>
-          <t>b2010761-</t>
-        </is>
-      </c>
-      <c r="P9" s="34" t="inlineStr">
-        <is>
-          <t>B2000621-</t>
-        </is>
-      </c>
-      <c r="Q9" s="34" t="inlineStr">
-        <is>
-          <t>t2000213-</t>
-        </is>
-      </c>
-      <c r="R9" s="34" t="inlineStr">
-        <is>
-          <t>P1234153-</t>
-        </is>
-      </c>
-      <c r="S9" s="34" t="inlineStr">
-        <is>
-          <t>B2010483-</t>
-        </is>
-      </c>
-      <c r="T9" s="34" t="inlineStr">
-        <is>
-          <t>B2011072-</t>
-        </is>
-      </c>
-      <c r="U9" s="34" t="n"/>
-      <c r="V9" s="34" t="n"/>
-      <c r="W9" s="34" t="inlineStr">
-        <is>
-          <t>P1229865-</t>
-        </is>
-      </c>
-      <c r="X9" s="34" t="inlineStr">
-        <is>
-          <t>B2010440-</t>
-        </is>
-      </c>
-      <c r="Y9" s="34" t="inlineStr">
-        <is>
-          <t>t2001456-</t>
-        </is>
-      </c>
-      <c r="Z9" s="34" t="inlineStr">
-        <is>
-          <t>B2010214-</t>
-        </is>
-      </c>
-      <c r="AA9" s="34" t="inlineStr">
-        <is>
-          <t>B2011361-</t>
-        </is>
-      </c>
-      <c r="AB9" s="34" t="inlineStr">
-        <is>
-          <t>b2010516-</t>
-        </is>
-      </c>
-      <c r="AC9" s="34" t="inlineStr">
-        <is>
-          <t>B1006385-</t>
-        </is>
-      </c>
-      <c r="AD9" s="34" t="inlineStr">
-        <is>
-          <t>T2001085-</t>
+      <c r="A9" s="31" t="n"/>
+      <c r="B9" s="31" t="n"/>
+      <c r="C9" s="32" t="inlineStr">
+        <is>
+          <t>T2000322-</t>
+        </is>
+      </c>
+      <c r="D9" s="32" t="inlineStr">
+        <is>
+          <t>B1007788-</t>
+        </is>
+      </c>
+      <c r="E9" s="32" t="inlineStr">
+        <is>
+          <t>b2009900-</t>
+        </is>
+      </c>
+      <c r="F9" s="33" t="inlineStr">
+        <is>
+          <t>B2011244-</t>
+        </is>
+      </c>
+      <c r="G9" s="33" t="inlineStr">
+        <is>
+          <t>B2000720-</t>
+        </is>
+      </c>
+      <c r="H9" s="33" t="inlineStr">
+        <is>
+          <t>B2011545-</t>
+        </is>
+      </c>
+      <c r="I9" s="33" t="inlineStr">
+        <is>
+          <t>T2001209-</t>
+        </is>
+      </c>
+      <c r="J9" s="33" t="inlineStr">
+        <is>
+          <t>T2001710-</t>
+        </is>
+      </c>
+      <c r="K9" s="33" t="inlineStr">
+        <is>
+          <t>T2001732-</t>
+        </is>
+      </c>
+      <c r="L9" s="33" t="inlineStr">
+        <is>
+          <t>B1004575-</t>
+        </is>
+      </c>
+      <c r="M9" s="33" t="inlineStr">
+        <is>
+          <t>B1007925-</t>
+        </is>
+      </c>
+      <c r="N9" s="33" t="inlineStr">
+        <is>
+          <t>t1001142-</t>
+        </is>
+      </c>
+      <c r="O9" s="33" t="inlineStr">
+        <is>
+          <t>T2003033-</t>
+        </is>
+      </c>
+      <c r="P9" s="33" t="inlineStr">
+        <is>
+          <t>T1000263-</t>
+        </is>
+      </c>
+      <c r="Q9" s="33" t="inlineStr">
+        <is>
+          <t>B2010272-</t>
+        </is>
+      </c>
+      <c r="R9" s="33" t="inlineStr">
+        <is>
+          <t>B2010511-</t>
+        </is>
+      </c>
+      <c r="S9" s="33" t="inlineStr">
+        <is>
+          <t>M1011225-</t>
+        </is>
+      </c>
+      <c r="T9" s="33" t="inlineStr">
+        <is>
+          <t>M1015668-</t>
+        </is>
+      </c>
+      <c r="U9" s="33" t="inlineStr">
+        <is>
+          <t>B2000013-</t>
+        </is>
+      </c>
+      <c r="V9" s="33" t="inlineStr">
+        <is>
+          <t>T2002995-</t>
+        </is>
+      </c>
+      <c r="W9" s="33" t="inlineStr">
+        <is>
+          <t>B2010269-</t>
+        </is>
+      </c>
+      <c r="X9" s="33" t="inlineStr">
+        <is>
+          <t>m1009324-</t>
+        </is>
+      </c>
+      <c r="Y9" s="33" t="inlineStr">
+        <is>
+          <t>B2000724-</t>
+        </is>
+      </c>
+      <c r="Z9" s="33" t="inlineStr">
+        <is>
+          <t>B2000721-</t>
+        </is>
+      </c>
+      <c r="AA9" s="33" t="inlineStr">
+        <is>
+          <t>T2003185-</t>
+        </is>
+      </c>
+      <c r="AB9" s="33" t="inlineStr">
+        <is>
+          <t>B2000535-</t>
+        </is>
+      </c>
+      <c r="AC9" s="33" t="inlineStr">
+        <is>
+          <t>B2010189-</t>
+        </is>
+      </c>
+      <c r="AD9" s="33" t="inlineStr">
+        <is>
+          <t>B2011459-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="n"/>
+      <c r="A10" s="22" t="n"/>
       <c r="B10" s="10" t="inlineStr">
         <is>
           <t>C</t>
@@ -1890,283 +1923,291 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>06021C</t>
+          <t>06272C</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>06022C</t>
+          <t>06271C</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>06041C</t>
+          <t>06252C</t>
         </is>
       </c>
       <c r="F10" s="7" t="inlineStr">
         <is>
-          <t>06042C</t>
+          <t>06251C</t>
         </is>
       </c>
       <c r="G10" s="7" t="inlineStr">
         <is>
-          <t>06061C</t>
+          <t>06232C</t>
         </is>
       </c>
       <c r="H10" s="7" t="inlineStr">
         <is>
-          <t>06062C</t>
+          <t>06231C</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr">
         <is>
-          <t>06081C</t>
+          <t>06212C</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr">
         <is>
-          <t>06082C</t>
+          <t>06211C</t>
         </is>
       </c>
       <c r="K10" s="7" t="inlineStr">
         <is>
-          <t>06101C</t>
+          <t>06192C</t>
         </is>
       </c>
       <c r="L10" s="7" t="inlineStr">
         <is>
-          <t>06102C</t>
+          <t>06191C</t>
         </is>
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>06121C</t>
+          <t>06172C</t>
         </is>
       </c>
       <c r="N10" s="7" t="inlineStr">
         <is>
-          <t>06122C</t>
+          <t>06171C</t>
         </is>
       </c>
       <c r="O10" s="7" t="inlineStr">
         <is>
-          <t>06141C</t>
+          <t>06152C</t>
         </is>
       </c>
       <c r="P10" s="7" t="inlineStr">
         <is>
-          <t>06142C</t>
+          <t>06151C</t>
         </is>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>06161C</t>
+          <t>06132C</t>
         </is>
       </c>
       <c r="R10" s="7" t="inlineStr">
         <is>
-          <t>06162C</t>
+          <t>06131C</t>
         </is>
       </c>
       <c r="S10" s="7" t="inlineStr">
         <is>
-          <t>06181C</t>
+          <t>06112C</t>
         </is>
       </c>
       <c r="T10" s="7" t="inlineStr">
         <is>
-          <t>06182C</t>
+          <t>06111C</t>
         </is>
       </c>
       <c r="U10" s="7" t="inlineStr">
         <is>
-          <t>06206C</t>
+          <t>06092C</t>
         </is>
       </c>
       <c r="V10" s="7" t="inlineStr">
         <is>
-          <t>06206C</t>
+          <t>06091C</t>
         </is>
       </c>
       <c r="W10" s="7" t="inlineStr">
         <is>
-          <t>06221C</t>
+          <t>06072C</t>
         </is>
       </c>
       <c r="X10" s="7" t="inlineStr">
         <is>
-          <t>06222C</t>
+          <t>06071C</t>
         </is>
       </c>
       <c r="Y10" s="7" t="inlineStr">
         <is>
-          <t>06241C</t>
+          <t>06052C</t>
         </is>
       </c>
       <c r="Z10" s="7" t="inlineStr">
         <is>
-          <t>06242C</t>
+          <t>06051C</t>
         </is>
       </c>
       <c r="AA10" s="7" t="inlineStr">
         <is>
-          <t>06261C</t>
+          <t>06032C</t>
         </is>
       </c>
       <c r="AB10" s="7" t="inlineStr">
         <is>
-          <t>06262C</t>
+          <t>06031C</t>
         </is>
       </c>
       <c r="AC10" s="7" t="inlineStr">
         <is>
-          <t>06281C</t>
+          <t>06012C</t>
         </is>
       </c>
       <c r="AD10" s="7" t="inlineStr">
         <is>
-          <t>06282C</t>
+          <t>06011C</t>
         </is>
       </c>
     </row>
     <row r="11" ht="35" customHeight="1">
-      <c r="A11" s="32" t="n"/>
-      <c r="B11" s="32" t="n"/>
-      <c r="C11" s="33" t="inlineStr">
-        <is>
-          <t>m1010430-</t>
-        </is>
-      </c>
-      <c r="D11" s="33" t="inlineStr">
-        <is>
-          <t>B2000606-</t>
-        </is>
-      </c>
-      <c r="E11" s="33" t="inlineStr">
-        <is>
-          <t>B2010063-</t>
-        </is>
-      </c>
-      <c r="F11" s="34" t="inlineStr">
-        <is>
-          <t>b1008424-</t>
-        </is>
-      </c>
-      <c r="G11" s="34" t="inlineStr">
-        <is>
-          <t>B2010257-</t>
-        </is>
-      </c>
-      <c r="H11" s="34" t="inlineStr">
-        <is>
-          <t>B2010039-</t>
-        </is>
-      </c>
-      <c r="I11" s="34" t="inlineStr">
-        <is>
-          <t>b2009918-</t>
-        </is>
-      </c>
-      <c r="J11" s="34" t="inlineStr">
-        <is>
-          <t>b1005530-</t>
-        </is>
-      </c>
-      <c r="K11" s="34" t="inlineStr">
-        <is>
-          <t>B2010762-</t>
-        </is>
-      </c>
-      <c r="L11" s="34" t="inlineStr">
-        <is>
-          <t>b2000912-</t>
-        </is>
-      </c>
-      <c r="M11" s="34" t="inlineStr">
-        <is>
-          <t>B1007395-</t>
-        </is>
-      </c>
-      <c r="N11" s="34" t="inlineStr">
-        <is>
-          <t>P1091108-</t>
-        </is>
-      </c>
-      <c r="O11" s="34" t="inlineStr">
-        <is>
-          <t>B1006364-</t>
-        </is>
-      </c>
-      <c r="P11" s="34" t="inlineStr">
-        <is>
-          <t>B2011080-</t>
-        </is>
-      </c>
-      <c r="Q11" s="34" t="inlineStr">
-        <is>
-          <t>b2010125-</t>
-        </is>
-      </c>
-      <c r="R11" s="34" t="inlineStr">
-        <is>
-          <t>P1210199-</t>
-        </is>
-      </c>
-      <c r="S11" s="34" t="inlineStr">
-        <is>
-          <t>B1007243-</t>
-        </is>
-      </c>
-      <c r="T11" s="34" t="inlineStr">
-        <is>
-          <t>B2011077-</t>
-        </is>
-      </c>
-      <c r="U11" s="34" t="n"/>
-      <c r="V11" s="34" t="n"/>
-      <c r="W11" s="34" t="inlineStr">
-        <is>
-          <t>b1008234-</t>
-        </is>
-      </c>
-      <c r="X11" s="34" t="inlineStr">
-        <is>
-          <t>b1004652-</t>
-        </is>
-      </c>
-      <c r="Y11" s="34" t="inlineStr">
-        <is>
-          <t>T2001541-</t>
-        </is>
-      </c>
-      <c r="Z11" s="34" t="inlineStr">
-        <is>
-          <t>t2001248-</t>
-        </is>
-      </c>
-      <c r="AA11" s="34" t="inlineStr">
-        <is>
-          <t>B2010792-</t>
-        </is>
-      </c>
-      <c r="AB11" s="34" t="inlineStr">
-        <is>
-          <t>B1007135-</t>
-        </is>
-      </c>
-      <c r="AC11" s="34" t="inlineStr">
-        <is>
-          <t>B2009914-</t>
-        </is>
-      </c>
-      <c r="AD11" s="34" t="inlineStr">
-        <is>
-          <t>T1000849-</t>
+      <c r="A11" s="31" t="n"/>
+      <c r="B11" s="31" t="n"/>
+      <c r="C11" s="32" t="inlineStr">
+        <is>
+          <t>b2000650-</t>
+        </is>
+      </c>
+      <c r="D11" s="32" t="inlineStr">
+        <is>
+          <t>B1006232-</t>
+        </is>
+      </c>
+      <c r="E11" s="32" t="inlineStr">
+        <is>
+          <t>B1006871-</t>
+        </is>
+      </c>
+      <c r="F11" s="33" t="inlineStr">
+        <is>
+          <t>b2000834-</t>
+        </is>
+      </c>
+      <c r="G11" s="33" t="inlineStr">
+        <is>
+          <t>B2010506-</t>
+        </is>
+      </c>
+      <c r="H11" s="33" t="inlineStr">
+        <is>
+          <t>T1001268-</t>
+        </is>
+      </c>
+      <c r="I11" s="33" t="inlineStr">
+        <is>
+          <t>B1006405-</t>
+        </is>
+      </c>
+      <c r="J11" s="33" t="inlineStr">
+        <is>
+          <t>B1006402-</t>
+        </is>
+      </c>
+      <c r="K11" s="33" t="inlineStr">
+        <is>
+          <t>T1000017-</t>
+        </is>
+      </c>
+      <c r="L11" s="33" t="inlineStr">
+        <is>
+          <t>B2011544-</t>
+        </is>
+      </c>
+      <c r="M11" s="33" t="inlineStr">
+        <is>
+          <t>t2001130-</t>
+        </is>
+      </c>
+      <c r="N11" s="33" t="inlineStr">
+        <is>
+          <t>B1008449-</t>
+        </is>
+      </c>
+      <c r="O11" s="33" t="inlineStr">
+        <is>
+          <t>B1005017-</t>
+        </is>
+      </c>
+      <c r="P11" s="33" t="inlineStr">
+        <is>
+          <t>B2010911-</t>
+        </is>
+      </c>
+      <c r="Q11" s="33" t="inlineStr">
+        <is>
+          <t>B2010670-</t>
+        </is>
+      </c>
+      <c r="R11" s="33" t="inlineStr">
+        <is>
+          <t>B1006404-</t>
+        </is>
+      </c>
+      <c r="S11" s="33" t="inlineStr">
+        <is>
+          <t>B2009917-</t>
+        </is>
+      </c>
+      <c r="T11" s="33" t="inlineStr">
+        <is>
+          <t>B2012240-</t>
+        </is>
+      </c>
+      <c r="U11" s="33" t="inlineStr">
+        <is>
+          <t>B1007388-</t>
+        </is>
+      </c>
+      <c r="V11" s="33" t="inlineStr">
+        <is>
+          <t>B1006976-</t>
+        </is>
+      </c>
+      <c r="W11" s="33" t="inlineStr">
+        <is>
+          <t>m1005013-</t>
+        </is>
+      </c>
+      <c r="X11" s="33" t="inlineStr">
+        <is>
+          <t>B2010329-</t>
+        </is>
+      </c>
+      <c r="Y11" s="33" t="inlineStr">
+        <is>
+          <t>B1006424-</t>
+        </is>
+      </c>
+      <c r="Z11" s="33" t="inlineStr">
+        <is>
+          <t>T1001276-</t>
+        </is>
+      </c>
+      <c r="AA11" s="33" t="inlineStr">
+        <is>
+          <t>P1225170-</t>
+        </is>
+      </c>
+      <c r="AB11" s="33" t="inlineStr">
+        <is>
+          <t>B1008759-</t>
+        </is>
+      </c>
+      <c r="AC11" s="33" t="inlineStr">
+        <is>
+          <t>T2001667-</t>
+        </is>
+      </c>
+      <c r="AD11" s="33" t="inlineStr">
+        <is>
+          <t>b1006638-</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="n"/>
+      <c r="A12" s="22" t="n"/>
       <c r="B12" s="10" t="inlineStr">
         <is>
           <t>B</t>
@@ -2174,277 +2215,292 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>06021B</t>
+          <t>06272B</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>06022B</t>
+          <t>06271B</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>06041B</t>
+          <t>06252B</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
         <is>
-          <t>06042B</t>
+          <t>06251B</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>06061B</t>
+          <t>06232B</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr">
         <is>
-          <t>06062B</t>
+          <t>06231B</t>
         </is>
       </c>
       <c r="I12" s="7" t="inlineStr">
         <is>
-          <t>06081B</t>
+          <t>06212B</t>
         </is>
       </c>
       <c r="J12" s="7" t="inlineStr">
         <is>
-          <t>06082B</t>
+          <t>06211B</t>
         </is>
       </c>
       <c r="K12" s="7" t="inlineStr">
         <is>
-          <t>06101B</t>
+          <t>06192B</t>
         </is>
       </c>
       <c r="L12" s="7" t="inlineStr">
         <is>
-          <t>06102B</t>
+          <t>06191B</t>
         </is>
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>06121B</t>
+          <t>06172B</t>
         </is>
       </c>
       <c r="N12" s="7" t="inlineStr">
         <is>
-          <t>06122B</t>
+          <t>06171B</t>
         </is>
       </c>
       <c r="O12" s="7" t="inlineStr">
         <is>
-          <t>06141B</t>
+          <t>06152B</t>
         </is>
       </c>
       <c r="P12" s="7" t="inlineStr">
         <is>
-          <t>06142B</t>
+          <t>06151B</t>
         </is>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>06161B</t>
+          <t>06132B</t>
         </is>
       </c>
       <c r="R12" s="7" t="inlineStr">
         <is>
-          <t>06162B</t>
+          <t>06131B</t>
         </is>
       </c>
       <c r="S12" s="7" t="inlineStr">
         <is>
-          <t>06181B</t>
+          <t>06112B</t>
         </is>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
-          <t>06182B</t>
+          <t>06111B</t>
         </is>
       </c>
       <c r="U12" s="7" t="inlineStr">
         <is>
-          <t>06206B</t>
+          <t>06092B</t>
         </is>
       </c>
       <c r="V12" s="7" t="inlineStr">
         <is>
-          <t>06206B</t>
+          <t>06091B</t>
         </is>
       </c>
       <c r="W12" s="7" t="inlineStr">
         <is>
-          <t>06221B</t>
+          <t>06072B</t>
         </is>
       </c>
       <c r="X12" s="7" t="inlineStr">
         <is>
-          <t>06222B</t>
+          <t>06071B</t>
         </is>
       </c>
       <c r="Y12" s="7" t="inlineStr">
         <is>
-          <t>06241B</t>
+          <t>06052B</t>
         </is>
       </c>
       <c r="Z12" s="7" t="inlineStr">
         <is>
-          <t>06242B</t>
+          <t>06051B</t>
         </is>
       </c>
       <c r="AA12" s="7" t="inlineStr">
         <is>
-          <t>06261B</t>
+          <t>06032B</t>
         </is>
       </c>
       <c r="AB12" s="7" t="inlineStr">
         <is>
-          <t>06262B</t>
+          <t>06031B</t>
         </is>
       </c>
       <c r="AC12" s="7" t="inlineStr">
         <is>
-          <t>06281B</t>
+          <t>06012B</t>
         </is>
       </c>
       <c r="AD12" s="7" t="inlineStr">
         <is>
-          <t>06282B</t>
+          <t>06011B</t>
         </is>
       </c>
     </row>
     <row r="13" ht="35" customHeight="1">
-      <c r="A13" s="32" t="n"/>
-      <c r="B13" s="32" t="n"/>
-      <c r="C13" s="33" t="inlineStr">
-        <is>
-          <t>rw200521-</t>
-        </is>
-      </c>
-      <c r="D13" s="33" t="inlineStr">
-        <is>
-          <t>B1008803-</t>
-        </is>
-      </c>
-      <c r="E13" s="34" t="inlineStr">
-        <is>
-          <t>B2010564-</t>
-        </is>
-      </c>
-      <c r="F13" s="34" t="inlineStr">
-        <is>
-          <t>B1009016-</t>
-        </is>
-      </c>
-      <c r="G13" s="34" t="inlineStr">
-        <is>
-          <t>B2011267-</t>
-        </is>
-      </c>
-      <c r="H13" s="34" t="inlineStr">
-        <is>
-          <t>P1232704-</t>
-        </is>
-      </c>
-      <c r="I13" s="34" t="inlineStr">
-        <is>
-          <t>B2000287-</t>
-        </is>
-      </c>
-      <c r="J13" s="34" t="inlineStr">
-        <is>
-          <t>B1009255-</t>
-        </is>
-      </c>
-      <c r="K13" s="36" t="inlineStr">
-        <is>
-          <t>P1224736-
-RW200526-</t>
-        </is>
-      </c>
-      <c r="L13" s="34" t="n"/>
-      <c r="M13" s="34" t="inlineStr">
-        <is>
-          <t>B1009019-</t>
-        </is>
-      </c>
-      <c r="N13" s="34" t="inlineStr">
-        <is>
-          <t>T2001757-</t>
-        </is>
-      </c>
-      <c r="O13" s="34" t="inlineStr">
-        <is>
-          <t>T2001753-</t>
-        </is>
-      </c>
-      <c r="P13" s="34" t="inlineStr">
-        <is>
-          <t>B1004999-</t>
-        </is>
-      </c>
-      <c r="Q13" s="34" t="inlineStr">
-        <is>
-          <t>T1000963-</t>
-        </is>
-      </c>
-      <c r="R13" s="34" t="inlineStr">
-        <is>
-          <t>b1007521-</t>
-        </is>
-      </c>
-      <c r="S13" s="34" t="inlineStr">
-        <is>
-          <t>B1009036-</t>
-        </is>
-      </c>
-      <c r="T13" s="34" t="inlineStr">
-        <is>
-          <t>B2010202-</t>
-        </is>
-      </c>
-      <c r="U13" s="34" t="n"/>
-      <c r="V13" s="34" t="n"/>
-      <c r="W13" s="34" t="inlineStr">
-        <is>
-          <t>B2011204-</t>
-        </is>
-      </c>
-      <c r="X13" s="34" t="inlineStr">
-        <is>
-          <t>B2010460-</t>
-        </is>
-      </c>
-      <c r="Y13" s="34" t="inlineStr">
-        <is>
-          <t>M1012545-</t>
-        </is>
-      </c>
-      <c r="Z13" s="34" t="inlineStr">
-        <is>
-          <t>B1000214-</t>
-        </is>
-      </c>
-      <c r="AA13" s="34" t="inlineStr">
-        <is>
-          <t>t2001318-</t>
-        </is>
-      </c>
-      <c r="AB13" s="34" t="inlineStr">
-        <is>
-          <t>M1016847-</t>
-        </is>
-      </c>
-      <c r="AC13" s="34" t="n"/>
-      <c r="AD13" s="34" t="inlineStr">
-        <is>
-          <t>B2011270-</t>
+      <c r="A13" s="31" t="n"/>
+      <c r="B13" s="31" t="n"/>
+      <c r="C13" s="32" t="inlineStr">
+        <is>
+          <t>B2011527-</t>
+        </is>
+      </c>
+      <c r="D13" s="32" t="inlineStr">
+        <is>
+          <t>B2010505-</t>
+        </is>
+      </c>
+      <c r="E13" s="33" t="inlineStr">
+        <is>
+          <t>B2010312-</t>
+        </is>
+      </c>
+      <c r="F13" s="33" t="inlineStr">
+        <is>
+          <t>B2010294-</t>
+        </is>
+      </c>
+      <c r="G13" s="33" t="inlineStr">
+        <is>
+          <t>t2000258-</t>
+        </is>
+      </c>
+      <c r="H13" s="33" t="inlineStr">
+        <is>
+          <t>b1008428-</t>
+        </is>
+      </c>
+      <c r="I13" s="33" t="inlineStr">
+        <is>
+          <t>B1009189-</t>
+        </is>
+      </c>
+      <c r="J13" s="33" t="n"/>
+      <c r="K13" s="33" t="inlineStr">
+        <is>
+          <t>T1000752-</t>
+        </is>
+      </c>
+      <c r="L13" s="33" t="inlineStr">
+        <is>
+          <t>B1006200-</t>
+        </is>
+      </c>
+      <c r="M13" s="33" t="inlineStr">
+        <is>
+          <t>T1000052-</t>
+        </is>
+      </c>
+      <c r="N13" s="33" t="inlineStr">
+        <is>
+          <t>B2000803-</t>
+        </is>
+      </c>
+      <c r="O13" s="33" t="inlineStr">
+        <is>
+          <t>t2001245-</t>
+        </is>
+      </c>
+      <c r="P13" s="33" t="inlineStr">
+        <is>
+          <t>b2011114-</t>
+        </is>
+      </c>
+      <c r="Q13" s="33" t="inlineStr">
+        <is>
+          <t>b2011075-</t>
+        </is>
+      </c>
+      <c r="R13" s="33" t="inlineStr">
+        <is>
+          <t>B2011543-</t>
+        </is>
+      </c>
+      <c r="S13" s="33" t="inlineStr">
+        <is>
+          <t>B1009020-</t>
+        </is>
+      </c>
+      <c r="T13" s="33" t="inlineStr">
+        <is>
+          <t>B1009044-</t>
+        </is>
+      </c>
+      <c r="U13" s="33" t="inlineStr">
+        <is>
+          <t>B2011437-</t>
+        </is>
+      </c>
+      <c r="V13" s="33" t="inlineStr">
+        <is>
+          <t>B2011494-</t>
+        </is>
+      </c>
+      <c r="W13" s="33" t="inlineStr">
+        <is>
+          <t>B1008419-</t>
+        </is>
+      </c>
+      <c r="X13" s="33" t="inlineStr">
+        <is>
+          <t>B2010157-</t>
+        </is>
+      </c>
+      <c r="Y13" s="33" t="inlineStr">
+        <is>
+          <t>B1006135-</t>
+        </is>
+      </c>
+      <c r="Z13" s="33" t="inlineStr">
+        <is>
+          <t>B1006203-</t>
+        </is>
+      </c>
+      <c r="AA13" s="33" t="inlineStr">
+        <is>
+          <t>B1005950-</t>
+        </is>
+      </c>
+      <c r="AB13" s="33" t="inlineStr">
+        <is>
+          <t>B1008630-</t>
+        </is>
+      </c>
+      <c r="AC13" s="33" t="inlineStr">
+        <is>
+          <t>B1009000-</t>
+        </is>
+      </c>
+      <c r="AD13" s="33" t="inlineStr">
+        <is>
+          <t>B2010448-</t>
         </is>
       </c>
     </row>
     <row r="14" ht="11" customFormat="1" customHeight="1" s="17">
-      <c r="A14" s="21" t="n"/>
-      <c r="B14" s="16" t="n"/>
+      <c r="A14" s="22" t="n"/>
+      <c r="B14" s="16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="C14" s="19" t="n"/>
       <c r="D14" s="19" t="n"/>
       <c r="E14" s="19" t="n"/>
@@ -2475,36 +2531,36 @@
       <c r="AD14" s="19" t="n"/>
     </row>
     <row r="15" ht="35" customHeight="1">
-      <c r="A15" s="37" t="n"/>
-      <c r="B15" s="37" t="n"/>
-      <c r="C15" s="33" t="n"/>
-      <c r="D15" s="33" t="n"/>
-      <c r="E15" s="33" t="n"/>
-      <c r="F15" s="33" t="n"/>
-      <c r="G15" s="33" t="n"/>
-      <c r="H15" s="33" t="n"/>
-      <c r="I15" s="33" t="n"/>
-      <c r="J15" s="33" t="n"/>
-      <c r="K15" s="33" t="n"/>
-      <c r="L15" s="33" t="n"/>
-      <c r="M15" s="33" t="n"/>
-      <c r="N15" s="33" t="n"/>
-      <c r="O15" s="33" t="n"/>
-      <c r="P15" s="33" t="n"/>
-      <c r="Q15" s="33" t="n"/>
-      <c r="R15" s="33" t="n"/>
-      <c r="S15" s="33" t="n"/>
-      <c r="T15" s="33" t="n"/>
-      <c r="U15" s="33" t="n"/>
-      <c r="V15" s="33" t="n"/>
-      <c r="W15" s="33" t="n"/>
-      <c r="X15" s="33" t="n"/>
-      <c r="Y15" s="33" t="n"/>
-      <c r="Z15" s="33" t="n"/>
-      <c r="AA15" s="33" t="n"/>
-      <c r="AB15" s="33" t="n"/>
-      <c r="AC15" s="33" t="n"/>
-      <c r="AD15" s="33" t="n"/>
+      <c r="A15" s="34" t="n"/>
+      <c r="B15" s="34" t="n"/>
+      <c r="C15" s="32" t="n"/>
+      <c r="D15" s="32" t="n"/>
+      <c r="E15" s="32" t="n"/>
+      <c r="F15" s="32" t="n"/>
+      <c r="G15" s="32" t="n"/>
+      <c r="H15" s="32" t="n"/>
+      <c r="I15" s="32" t="n"/>
+      <c r="J15" s="32" t="n"/>
+      <c r="K15" s="32" t="n"/>
+      <c r="L15" s="32" t="n"/>
+      <c r="M15" s="32" t="n"/>
+      <c r="N15" s="32" t="n"/>
+      <c r="O15" s="32" t="n"/>
+      <c r="P15" s="32" t="n"/>
+      <c r="Q15" s="32" t="n"/>
+      <c r="R15" s="32" t="n"/>
+      <c r="S15" s="32" t="n"/>
+      <c r="T15" s="32" t="n"/>
+      <c r="U15" s="32" t="n"/>
+      <c r="V15" s="32" t="n"/>
+      <c r="W15" s="32" t="n"/>
+      <c r="X15" s="32" t="n"/>
+      <c r="Y15" s="32" t="n"/>
+      <c r="Z15" s="32" t="n"/>
+      <c r="AA15" s="32" t="n"/>
+      <c r="AB15" s="32" t="n"/>
+      <c r="AC15" s="32" t="n"/>
+      <c r="AD15" s="32" t="n"/>
     </row>
     <row r="16" ht="17" customHeight="1">
       <c r="A16" s="6" t="n"/>
@@ -2743,7 +2799,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="20" t="inlineStr">
+      <c r="A18" s="21" t="inlineStr">
         <is>
           <t>R
 I
@@ -2756,1734 +2812,1793 @@
 E</t>
         </is>
       </c>
-      <c r="B18" s="20" t="inlineStr">
+      <c r="B18" s="21" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>06272G</t>
+          <t>06021G</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>06271G</t>
+          <t>06022G</t>
         </is>
       </c>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>06252G</t>
+          <t>06041G</t>
         </is>
       </c>
       <c r="F18" s="11" t="inlineStr">
         <is>
-          <t>06251G</t>
+          <t>06042G</t>
         </is>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>06232G</t>
+          <t>06061G</t>
         </is>
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>06231G</t>
+          <t>06062G</t>
         </is>
       </c>
       <c r="I18" s="11" t="inlineStr">
         <is>
-          <t>06212G</t>
+          <t>06081G</t>
         </is>
       </c>
       <c r="J18" s="11" t="inlineStr">
         <is>
-          <t>06211G</t>
+          <t>06082G</t>
         </is>
       </c>
       <c r="K18" s="11" t="inlineStr">
         <is>
-          <t>06192G</t>
+          <t>06101G</t>
         </is>
       </c>
       <c r="L18" s="11" t="inlineStr">
         <is>
-          <t>06191G</t>
+          <t>06102G</t>
         </is>
       </c>
       <c r="M18" s="11" t="inlineStr">
         <is>
-          <t>06172G</t>
+          <t>06121G</t>
         </is>
       </c>
       <c r="N18" s="11" t="inlineStr">
         <is>
-          <t>06171G</t>
+          <t>06122G</t>
         </is>
       </c>
       <c r="O18" s="11" t="inlineStr">
         <is>
-          <t>06152G</t>
+          <t>06141G</t>
         </is>
       </c>
       <c r="P18" s="11" t="inlineStr">
         <is>
-          <t>06151G</t>
+          <t>06142G</t>
         </is>
       </c>
       <c r="Q18" s="11" t="inlineStr">
         <is>
-          <t>06132G</t>
+          <t>06161G</t>
         </is>
       </c>
       <c r="R18" s="11" t="inlineStr">
         <is>
-          <t>06131G</t>
+          <t>06162G</t>
         </is>
       </c>
       <c r="S18" s="11" t="inlineStr">
         <is>
-          <t>06112G</t>
+          <t>06181G</t>
         </is>
       </c>
       <c r="T18" s="11" t="inlineStr">
         <is>
-          <t>06111G</t>
+          <t>06182G</t>
         </is>
       </c>
       <c r="U18" s="11" t="inlineStr">
         <is>
-          <t>06092G</t>
+          <t>06201G</t>
         </is>
       </c>
       <c r="V18" s="11" t="inlineStr">
         <is>
-          <t>06091G</t>
+          <t>06202G</t>
         </is>
       </c>
       <c r="W18" s="11" t="inlineStr">
         <is>
-          <t>06072G</t>
+          <t>06221G</t>
         </is>
       </c>
       <c r="X18" s="11" t="inlineStr">
         <is>
-          <t>06071G</t>
+          <t>06222G</t>
         </is>
       </c>
       <c r="Y18" s="11" t="inlineStr">
         <is>
-          <t>06052G</t>
+          <t>06241G</t>
         </is>
       </c>
       <c r="Z18" s="11" t="inlineStr">
         <is>
-          <t>06051G</t>
+          <t>06242G</t>
         </is>
       </c>
       <c r="AA18" s="11" t="inlineStr">
         <is>
-          <t>06032G</t>
+          <t>06261G</t>
         </is>
       </c>
       <c r="AB18" s="11" t="inlineStr">
         <is>
-          <t>06031G</t>
+          <t>06262G</t>
         </is>
       </c>
       <c r="AC18" s="11" t="inlineStr">
         <is>
-          <t>06012G</t>
+          <t>06281G</t>
         </is>
       </c>
       <c r="AD18" s="11" t="inlineStr">
         <is>
-          <t>06011G</t>
+          <t>06282G</t>
         </is>
       </c>
     </row>
     <row r="19" ht="35" customHeight="1">
-      <c r="A19" s="32" t="n"/>
-      <c r="B19" s="34" t="n"/>
-      <c r="C19" s="34" t="inlineStr">
-        <is>
-          <t>B1004661-</t>
-        </is>
-      </c>
-      <c r="D19" s="34" t="n"/>
-      <c r="E19" s="34" t="inlineStr">
-        <is>
-          <t>B2000146-</t>
-        </is>
-      </c>
-      <c r="F19" s="34" t="inlineStr">
-        <is>
-          <t>B2000697-</t>
-        </is>
-      </c>
-      <c r="G19" s="34" t="inlineStr">
-        <is>
-          <t>B2000155-</t>
-        </is>
-      </c>
-      <c r="H19" s="34" t="inlineStr">
-        <is>
-          <t>B2000687-</t>
-        </is>
-      </c>
-      <c r="I19" s="34" t="inlineStr">
-        <is>
-          <t>B1008787-</t>
-        </is>
-      </c>
-      <c r="J19" s="34" t="inlineStr">
-        <is>
-          <t>B1009132-</t>
-        </is>
-      </c>
-      <c r="K19" s="34" t="inlineStr">
-        <is>
-          <t>B2010364-</t>
-        </is>
-      </c>
-      <c r="L19" s="34" t="n"/>
-      <c r="M19" s="34" t="inlineStr">
-        <is>
-          <t>B2000586-</t>
-        </is>
-      </c>
-      <c r="N19" s="34" t="inlineStr">
-        <is>
-          <t>B1005403-</t>
-        </is>
-      </c>
-      <c r="O19" s="34" t="n"/>
-      <c r="P19" s="34" t="inlineStr">
-        <is>
-          <t>B1007522-</t>
-        </is>
-      </c>
-      <c r="Q19" s="34" t="inlineStr">
-        <is>
-          <t>B2000581-</t>
-        </is>
-      </c>
-      <c r="R19" s="34" t="n"/>
-      <c r="S19" s="34" t="inlineStr">
-        <is>
-          <t>B2000597-</t>
-        </is>
-      </c>
-      <c r="T19" s="34" t="n"/>
-      <c r="U19" s="34" t="n"/>
-      <c r="V19" s="34" t="n"/>
-      <c r="W19" s="34" t="n"/>
-      <c r="X19" s="34" t="n"/>
-      <c r="Y19" s="34" t="n"/>
-      <c r="Z19" s="34" t="n"/>
-      <c r="AA19" s="34" t="inlineStr">
-        <is>
-          <t>B2011145-</t>
-        </is>
-      </c>
-      <c r="AB19" s="34" t="inlineStr">
-        <is>
-          <t>B1006688-</t>
-        </is>
-      </c>
-      <c r="AC19" s="34" t="inlineStr">
-        <is>
-          <t>B1006516-</t>
-        </is>
-      </c>
-      <c r="AD19" s="34" t="inlineStr">
-        <is>
-          <t>B1001257-</t>
+      <c r="A19" s="31" t="n"/>
+      <c r="B19" s="33" t="n"/>
+      <c r="C19" s="33" t="inlineStr">
+        <is>
+          <t>B1008635-</t>
+        </is>
+      </c>
+      <c r="D19" s="33" t="inlineStr">
+        <is>
+          <t>T2003345-</t>
+        </is>
+      </c>
+      <c r="E19" s="33" t="inlineStr">
+        <is>
+          <t>B2010502-</t>
+        </is>
+      </c>
+      <c r="F19" s="33" t="inlineStr">
+        <is>
+          <t>B1006362-</t>
+        </is>
+      </c>
+      <c r="G19" s="33" t="n"/>
+      <c r="H19" s="33" t="inlineStr">
+        <is>
+          <t>B2000627-</t>
+        </is>
+      </c>
+      <c r="I19" s="33" t="inlineStr">
+        <is>
+          <t>B2010577-</t>
+        </is>
+      </c>
+      <c r="J19" s="33" t="inlineStr">
+        <is>
+          <t>T2001444-</t>
+        </is>
+      </c>
+      <c r="K19" s="33" t="n"/>
+      <c r="L19" s="33" t="n"/>
+      <c r="M19" s="33" t="inlineStr">
+        <is>
+          <t>B2000111-</t>
+        </is>
+      </c>
+      <c r="N19" s="33" t="n"/>
+      <c r="O19" s="33" t="inlineStr">
+        <is>
+          <t>B1005972-</t>
+        </is>
+      </c>
+      <c r="P19" s="33" t="inlineStr">
+        <is>
+          <t>B1007881-</t>
+        </is>
+      </c>
+      <c r="Q19" s="33" t="inlineStr">
+        <is>
+          <t>T2001110-</t>
+        </is>
+      </c>
+      <c r="R19" s="33" t="inlineStr">
+        <is>
+          <t>B2011507-</t>
+        </is>
+      </c>
+      <c r="S19" s="33" t="inlineStr">
+        <is>
+          <t>B2000599-</t>
+        </is>
+      </c>
+      <c r="T19" s="33" t="inlineStr">
+        <is>
+          <t>t1000504-</t>
+        </is>
+      </c>
+      <c r="U19" s="33" t="inlineStr">
+        <is>
+          <t>B1007751-</t>
+        </is>
+      </c>
+      <c r="V19" s="33" t="inlineStr">
+        <is>
+          <t>B1005980-</t>
+        </is>
+      </c>
+      <c r="W19" s="33" t="inlineStr">
+        <is>
+          <t>M1015603-</t>
+        </is>
+      </c>
+      <c r="X19" s="33" t="inlineStr">
+        <is>
+          <t>B1006212-</t>
+        </is>
+      </c>
+      <c r="Y19" s="33" t="inlineStr">
+        <is>
+          <t>P1232644-</t>
+        </is>
+      </c>
+      <c r="Z19" s="33" t="inlineStr">
+        <is>
+          <t>B2011499-</t>
+        </is>
+      </c>
+      <c r="AA19" s="33" t="n"/>
+      <c r="AB19" s="33" t="inlineStr">
+        <is>
+          <t>T2002826-</t>
+        </is>
+      </c>
+      <c r="AC19" s="33" t="inlineStr">
+        <is>
+          <t>t2000102-</t>
+        </is>
+      </c>
+      <c r="AD19" s="33" t="inlineStr">
+        <is>
+          <t>B2009914-</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="n"/>
-      <c r="B20" s="20" t="inlineStr">
+      <c r="A20" s="22" t="n"/>
+      <c r="B20" s="21" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>06272F</t>
+          <t>06021F</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>06271F</t>
+          <t>06022F</t>
         </is>
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>06252F</t>
+          <t>06041F</t>
         </is>
       </c>
       <c r="F20" s="11" t="inlineStr">
         <is>
-          <t>06251F</t>
+          <t>06042F</t>
         </is>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>06232F</t>
+          <t>06061F</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>06231F</t>
+          <t>06062F</t>
         </is>
       </c>
       <c r="I20" s="11" t="inlineStr">
         <is>
-          <t>06212F</t>
+          <t>06081F</t>
         </is>
       </c>
       <c r="J20" s="11" t="inlineStr">
         <is>
-          <t>06211F</t>
+          <t>06082F</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr">
         <is>
-          <t>06192F</t>
+          <t>06101F</t>
         </is>
       </c>
       <c r="L20" s="11" t="inlineStr">
         <is>
-          <t>06191F</t>
+          <t>06102F</t>
         </is>
       </c>
       <c r="M20" s="11" t="inlineStr">
         <is>
-          <t>06172F</t>
+          <t>06121F</t>
         </is>
       </c>
       <c r="N20" s="11" t="inlineStr">
         <is>
-          <t>06171F</t>
+          <t>06122F</t>
         </is>
       </c>
       <c r="O20" s="11" t="inlineStr">
         <is>
-          <t>06152F</t>
+          <t>06141F</t>
         </is>
       </c>
       <c r="P20" s="11" t="inlineStr">
         <is>
-          <t>06151F</t>
+          <t>06142F</t>
         </is>
       </c>
       <c r="Q20" s="11" t="inlineStr">
         <is>
-          <t>06132F</t>
+          <t>06161F</t>
         </is>
       </c>
       <c r="R20" s="11" t="inlineStr">
         <is>
-          <t>06131F</t>
+          <t>06162F</t>
         </is>
       </c>
       <c r="S20" s="11" t="inlineStr">
         <is>
-          <t>06112F</t>
+          <t>06181F</t>
         </is>
       </c>
       <c r="T20" s="11" t="inlineStr">
         <is>
-          <t>06111F</t>
+          <t>06182F</t>
         </is>
       </c>
       <c r="U20" s="11" t="inlineStr">
         <is>
-          <t>06092F</t>
+          <t>06201F</t>
         </is>
       </c>
       <c r="V20" s="11" t="inlineStr">
         <is>
-          <t>06091F</t>
+          <t>06202F</t>
         </is>
       </c>
       <c r="W20" s="11" t="inlineStr">
         <is>
-          <t>06072F</t>
+          <t>06221F</t>
         </is>
       </c>
       <c r="X20" s="11" t="inlineStr">
         <is>
-          <t>06071F</t>
+          <t>06222F</t>
         </is>
       </c>
       <c r="Y20" s="11" t="inlineStr">
         <is>
-          <t>06052F</t>
+          <t>06241F</t>
         </is>
       </c>
       <c r="Z20" s="11" t="inlineStr">
         <is>
-          <t>06051F</t>
+          <t>06242F</t>
         </is>
       </c>
       <c r="AA20" s="11" t="inlineStr">
         <is>
-          <t>06032F</t>
+          <t>06261F</t>
         </is>
       </c>
       <c r="AB20" s="11" t="inlineStr">
         <is>
-          <t>06031F</t>
+          <t>06262F</t>
         </is>
       </c>
       <c r="AC20" s="11" t="inlineStr">
         <is>
-          <t>06012F</t>
+          <t>06281F</t>
         </is>
       </c>
       <c r="AD20" s="11" t="inlineStr">
         <is>
-          <t>06011F</t>
+          <t>06282F</t>
         </is>
       </c>
     </row>
     <row r="21" ht="35" customHeight="1">
-      <c r="A21" s="32" t="n"/>
-      <c r="B21" s="34" t="n"/>
-      <c r="C21" s="34" t="inlineStr">
-        <is>
-          <t>B2010022-</t>
-        </is>
-      </c>
-      <c r="D21" s="34" t="inlineStr">
-        <is>
-          <t>B2010188-</t>
-        </is>
-      </c>
-      <c r="E21" s="34" t="inlineStr">
-        <is>
-          <t>B2011152-</t>
-        </is>
-      </c>
-      <c r="F21" s="34" t="inlineStr">
-        <is>
-          <t>B2010640-</t>
-        </is>
-      </c>
-      <c r="G21" s="34" t="n"/>
-      <c r="H21" s="34" t="inlineStr">
-        <is>
-          <t>b1005053-</t>
-        </is>
-      </c>
-      <c r="I21" s="34" t="inlineStr">
-        <is>
-          <t>B2010737-</t>
-        </is>
-      </c>
-      <c r="J21" s="34" t="inlineStr">
-        <is>
-          <t>B1008473-</t>
-        </is>
-      </c>
-      <c r="K21" s="34" t="inlineStr">
-        <is>
-          <t>P1051739-</t>
-        </is>
-      </c>
-      <c r="L21" s="34" t="inlineStr">
-        <is>
-          <t>T1000823-</t>
-        </is>
-      </c>
-      <c r="M21" s="34" t="inlineStr">
-        <is>
-          <t>b1006465-</t>
-        </is>
-      </c>
-      <c r="N21" s="34" t="inlineStr">
-        <is>
-          <t>B2011235-</t>
-        </is>
-      </c>
-      <c r="O21" s="34" t="inlineStr">
-        <is>
-          <t>T1001020-</t>
-        </is>
-      </c>
-      <c r="P21" s="34" t="inlineStr">
-        <is>
-          <t>M1009558-</t>
-        </is>
-      </c>
-      <c r="Q21" s="34" t="inlineStr">
-        <is>
-          <t>T2002787-</t>
-        </is>
-      </c>
-      <c r="R21" s="34" t="inlineStr">
-        <is>
-          <t>B2010606-</t>
-        </is>
-      </c>
-      <c r="S21" s="34" t="inlineStr">
-        <is>
-          <t>B2010609-</t>
-        </is>
-      </c>
-      <c r="T21" s="34" t="inlineStr">
-        <is>
-          <t>B1009049-</t>
-        </is>
-      </c>
-      <c r="U21" s="34" t="inlineStr">
-        <is>
-          <t>B1005316-</t>
-        </is>
-      </c>
-      <c r="V21" s="34" t="inlineStr">
-        <is>
-          <t>t1000025-</t>
-        </is>
-      </c>
-      <c r="W21" s="34" t="inlineStr">
-        <is>
-          <t>B1007265-</t>
-        </is>
-      </c>
-      <c r="X21" s="34" t="n"/>
-      <c r="Y21" s="34" t="inlineStr">
-        <is>
-          <t>B1001269-</t>
-        </is>
-      </c>
-      <c r="Z21" s="34" t="inlineStr">
-        <is>
-          <t>B1004052-</t>
-        </is>
-      </c>
-      <c r="AA21" s="34" t="n"/>
-      <c r="AB21" s="34" t="inlineStr">
-        <is>
-          <t>T1000957-</t>
-        </is>
-      </c>
-      <c r="AC21" s="34" t="inlineStr">
-        <is>
-          <t>b2000352-</t>
-        </is>
-      </c>
-      <c r="AD21" s="34" t="inlineStr">
-        <is>
-          <t>B1009012-</t>
+      <c r="A21" s="31" t="n"/>
+      <c r="B21" s="33" t="n"/>
+      <c r="C21" s="33" t="inlineStr">
+        <is>
+          <t>B1008035-</t>
+        </is>
+      </c>
+      <c r="D21" s="33" t="inlineStr">
+        <is>
+          <t>P1229830-</t>
+        </is>
+      </c>
+      <c r="E21" s="33" t="inlineStr">
+        <is>
+          <t>B1007997-</t>
+        </is>
+      </c>
+      <c r="F21" s="33" t="inlineStr">
+        <is>
+          <t>T2001700-</t>
+        </is>
+      </c>
+      <c r="G21" s="33" t="inlineStr">
+        <is>
+          <t>B2000625-</t>
+        </is>
+      </c>
+      <c r="H21" s="33" t="n"/>
+      <c r="I21" s="33" t="inlineStr">
+        <is>
+          <t>b2000351-</t>
+        </is>
+      </c>
+      <c r="J21" s="33" t="inlineStr">
+        <is>
+          <t>B1007320-</t>
+        </is>
+      </c>
+      <c r="K21" s="33" t="inlineStr">
+        <is>
+          <t>B2011458-</t>
+        </is>
+      </c>
+      <c r="L21" s="33" t="inlineStr">
+        <is>
+          <t>B2010174-</t>
+        </is>
+      </c>
+      <c r="M21" s="33" t="inlineStr">
+        <is>
+          <t>b1007644-</t>
+        </is>
+      </c>
+      <c r="N21" s="33" t="inlineStr">
+        <is>
+          <t>B1007391-</t>
+        </is>
+      </c>
+      <c r="O21" s="33" t="inlineStr">
+        <is>
+          <t>b2000350-</t>
+        </is>
+      </c>
+      <c r="P21" s="33" t="inlineStr">
+        <is>
+          <t>B2012308-</t>
+        </is>
+      </c>
+      <c r="Q21" s="33" t="inlineStr">
+        <is>
+          <t>B2012283-</t>
+        </is>
+      </c>
+      <c r="R21" s="33" t="inlineStr">
+        <is>
+          <t>b1008697-</t>
+        </is>
+      </c>
+      <c r="S21" s="33" t="inlineStr">
+        <is>
+          <t>P1223700-</t>
+        </is>
+      </c>
+      <c r="T21" s="33" t="inlineStr">
+        <is>
+          <t>B2010091-</t>
+        </is>
+      </c>
+      <c r="U21" s="33" t="inlineStr">
+        <is>
+          <t>B1007867-</t>
+        </is>
+      </c>
+      <c r="V21" s="33" t="inlineStr">
+        <is>
+          <t>M1015640-</t>
+        </is>
+      </c>
+      <c r="W21" s="33" t="inlineStr">
+        <is>
+          <t>t1000002-</t>
+        </is>
+      </c>
+      <c r="X21" s="33" t="inlineStr">
+        <is>
+          <t>B2000961-</t>
+        </is>
+      </c>
+      <c r="Y21" s="33" t="inlineStr">
+        <is>
+          <t>B2010805-</t>
+        </is>
+      </c>
+      <c r="Z21" s="33" t="inlineStr">
+        <is>
+          <t>B2010025-</t>
+        </is>
+      </c>
+      <c r="AA21" s="33" t="inlineStr">
+        <is>
+          <t>T2001879-</t>
+        </is>
+      </c>
+      <c r="AB21" s="33" t="inlineStr">
+        <is>
+          <t>B1004298-</t>
+        </is>
+      </c>
+      <c r="AC21" s="33" t="inlineStr">
+        <is>
+          <t>B1008185-</t>
+        </is>
+      </c>
+      <c r="AD21" s="33" t="inlineStr">
+        <is>
+          <t>B2010117-</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="n"/>
-      <c r="B22" s="20" t="inlineStr">
+      <c r="A22" s="22" t="n"/>
+      <c r="B22" s="21" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>06272E</t>
+          <t>06021E</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>06271E</t>
+          <t>06022E</t>
         </is>
       </c>
       <c r="E22" s="11" t="inlineStr">
         <is>
-          <t>06252E</t>
+          <t>06041E</t>
         </is>
       </c>
       <c r="F22" s="11" t="inlineStr">
         <is>
-          <t>06251E</t>
+          <t>06042E</t>
         </is>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>06232E</t>
+          <t>06061E</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>06231E</t>
+          <t>06062E</t>
         </is>
       </c>
       <c r="I22" s="11" t="inlineStr">
         <is>
-          <t>06212E</t>
+          <t>06081E</t>
         </is>
       </c>
       <c r="J22" s="11" t="inlineStr">
         <is>
-          <t>06211E</t>
+          <t>06082E</t>
         </is>
       </c>
       <c r="K22" s="11" t="inlineStr">
         <is>
-          <t>06192E</t>
+          <t>06101E</t>
         </is>
       </c>
       <c r="L22" s="11" t="inlineStr">
         <is>
-          <t>06191E</t>
+          <t>06102E</t>
         </is>
       </c>
       <c r="M22" s="11" t="inlineStr">
         <is>
-          <t>06172E</t>
+          <t>06121E</t>
         </is>
       </c>
       <c r="N22" s="11" t="inlineStr">
         <is>
-          <t>06171E</t>
+          <t>06122E</t>
         </is>
       </c>
       <c r="O22" s="11" t="inlineStr">
         <is>
-          <t>06152E</t>
+          <t>06141E</t>
         </is>
       </c>
       <c r="P22" s="11" t="inlineStr">
         <is>
-          <t>06151E</t>
+          <t>06142E</t>
         </is>
       </c>
       <c r="Q22" s="11" t="inlineStr">
         <is>
-          <t>06132E</t>
+          <t>06161E</t>
         </is>
       </c>
       <c r="R22" s="11" t="inlineStr">
         <is>
-          <t>06131E</t>
+          <t>06162E</t>
         </is>
       </c>
       <c r="S22" s="11" t="inlineStr">
         <is>
-          <t>06112E</t>
+          <t>06181E</t>
         </is>
       </c>
       <c r="T22" s="11" t="inlineStr">
         <is>
-          <t>06111E</t>
+          <t>06182E</t>
         </is>
       </c>
       <c r="U22" s="11" t="inlineStr">
         <is>
-          <t>06092E</t>
+          <t>06201E</t>
         </is>
       </c>
       <c r="V22" s="11" t="inlineStr">
         <is>
-          <t>06091E</t>
+          <t>06202E</t>
         </is>
       </c>
       <c r="W22" s="11" t="inlineStr">
         <is>
-          <t>06072E</t>
+          <t>06221E</t>
         </is>
       </c>
       <c r="X22" s="11" t="inlineStr">
         <is>
-          <t>06071E</t>
+          <t>06222E</t>
         </is>
       </c>
       <c r="Y22" s="11" t="inlineStr">
         <is>
-          <t>06052E</t>
+          <t>06241E</t>
         </is>
       </c>
       <c r="Z22" s="11" t="inlineStr">
         <is>
-          <t>06051E</t>
+          <t>06242E</t>
         </is>
       </c>
       <c r="AA22" s="11" t="inlineStr">
         <is>
-          <t>06032E</t>
+          <t>06261E</t>
         </is>
       </c>
       <c r="AB22" s="11" t="inlineStr">
         <is>
-          <t>06031E</t>
+          <t>06262E</t>
         </is>
       </c>
       <c r="AC22" s="11" t="inlineStr">
         <is>
-          <t>06012E</t>
+          <t>06281E</t>
         </is>
       </c>
       <c r="AD22" s="11" t="inlineStr">
         <is>
-          <t>06011E</t>
+          <t>06282E</t>
         </is>
       </c>
     </row>
     <row r="23" ht="35" customHeight="1">
-      <c r="A23" s="32" t="n"/>
-      <c r="B23" s="34" t="n"/>
-      <c r="C23" s="34" t="inlineStr">
-        <is>
-          <t>B1007425-</t>
-        </is>
-      </c>
-      <c r="D23" s="34" t="inlineStr">
-        <is>
-          <t>B2010659-</t>
-        </is>
-      </c>
-      <c r="E23" s="34" t="inlineStr">
-        <is>
-          <t>B2009915-</t>
-        </is>
-      </c>
-      <c r="F23" s="34" t="inlineStr">
-        <is>
-          <t>B2009916-</t>
-        </is>
-      </c>
-      <c r="G23" s="34" t="inlineStr">
-        <is>
-          <t>b1008481-</t>
-        </is>
-      </c>
-      <c r="H23" s="34" t="inlineStr">
-        <is>
-          <t>B1008662-</t>
-        </is>
-      </c>
-      <c r="I23" s="34" t="n"/>
-      <c r="J23" s="34" t="inlineStr">
-        <is>
-          <t>t1000596-</t>
-        </is>
-      </c>
-      <c r="K23" s="34" t="inlineStr">
-        <is>
-          <t>B2010701-</t>
-        </is>
-      </c>
-      <c r="L23" s="34" t="inlineStr">
-        <is>
-          <t>T1000181-</t>
-        </is>
-      </c>
-      <c r="M23" s="34" t="inlineStr">
-        <is>
-          <t>B1007323-</t>
-        </is>
-      </c>
-      <c r="N23" s="34" t="inlineStr">
-        <is>
-          <t>M1015564-</t>
-        </is>
-      </c>
-      <c r="O23" s="34" t="inlineStr">
-        <is>
-          <t>B1006380-</t>
-        </is>
-      </c>
-      <c r="P23" s="34" t="n"/>
-      <c r="Q23" s="34" t="inlineStr">
-        <is>
-          <t>B2000858-</t>
-        </is>
-      </c>
-      <c r="R23" s="34" t="inlineStr">
-        <is>
-          <t>B2010594-</t>
-        </is>
-      </c>
-      <c r="S23" s="34" t="inlineStr">
-        <is>
-          <t>B1005532-</t>
-        </is>
-      </c>
-      <c r="T23" s="34" t="inlineStr">
-        <is>
-          <t>b2000633-</t>
-        </is>
-      </c>
-      <c r="U23" s="34" t="inlineStr">
-        <is>
-          <t>B2010571-</t>
-        </is>
-      </c>
-      <c r="V23" s="34" t="inlineStr">
-        <is>
-          <t>B1008479-</t>
-        </is>
-      </c>
-      <c r="W23" s="34" t="inlineStr">
-        <is>
-          <t>B1006428-</t>
-        </is>
-      </c>
-      <c r="X23" s="34" t="inlineStr">
-        <is>
-          <t>b1000185-</t>
-        </is>
-      </c>
-      <c r="Y23" s="34" t="inlineStr">
-        <is>
-          <t>m1001076-</t>
-        </is>
-      </c>
-      <c r="Z23" s="34" t="inlineStr">
-        <is>
-          <t>T2001691-</t>
-        </is>
-      </c>
-      <c r="AA23" s="34" t="inlineStr">
-        <is>
-          <t>b1007874-</t>
-        </is>
-      </c>
-      <c r="AB23" s="34" t="inlineStr">
-        <is>
-          <t>B1004256-</t>
-        </is>
-      </c>
-      <c r="AC23" s="34" t="inlineStr">
-        <is>
-          <t>B2010390-</t>
-        </is>
-      </c>
-      <c r="AD23" s="34" t="inlineStr">
-        <is>
-          <t>B2010614-</t>
+      <c r="A23" s="31" t="n"/>
+      <c r="B23" s="33" t="n"/>
+      <c r="C23" s="33" t="inlineStr">
+        <is>
+          <t>B1008571-</t>
+        </is>
+      </c>
+      <c r="D23" s="33" t="inlineStr">
+        <is>
+          <t>T2002348-</t>
+        </is>
+      </c>
+      <c r="E23" s="33" t="inlineStr">
+        <is>
+          <t>b1009199-</t>
+        </is>
+      </c>
+      <c r="F23" s="33" t="inlineStr">
+        <is>
+          <t>b1008671-</t>
+        </is>
+      </c>
+      <c r="G23" s="33" t="inlineStr">
+        <is>
+          <t>B2010591-</t>
+        </is>
+      </c>
+      <c r="H23" s="33" t="inlineStr">
+        <is>
+          <t>T2001271-</t>
+        </is>
+      </c>
+      <c r="I23" s="33" t="inlineStr">
+        <is>
+          <t>B1007664-</t>
+        </is>
+      </c>
+      <c r="J23" s="33" t="inlineStr">
+        <is>
+          <t>B2010698-</t>
+        </is>
+      </c>
+      <c r="K23" s="33" t="n"/>
+      <c r="L23" s="33" t="inlineStr">
+        <is>
+          <t>P1058791-</t>
+        </is>
+      </c>
+      <c r="M23" s="33" t="inlineStr">
+        <is>
+          <t>B2000122-</t>
+        </is>
+      </c>
+      <c r="N23" s="33" t="inlineStr">
+        <is>
+          <t>B1006397-</t>
+        </is>
+      </c>
+      <c r="O23" s="33" t="inlineStr">
+        <is>
+          <t>t1000030-</t>
+        </is>
+      </c>
+      <c r="P23" s="33" t="inlineStr">
+        <is>
+          <t>E1000165-</t>
+        </is>
+      </c>
+      <c r="Q23" s="33" t="inlineStr">
+        <is>
+          <t>B2000509-</t>
+        </is>
+      </c>
+      <c r="R23" s="33" t="inlineStr">
+        <is>
+          <t>p1225047-</t>
+        </is>
+      </c>
+      <c r="S23" s="33" t="inlineStr">
+        <is>
+          <t>B1004110-</t>
+        </is>
+      </c>
+      <c r="T23" s="33" t="inlineStr">
+        <is>
+          <t>B1006366-</t>
+        </is>
+      </c>
+      <c r="U23" s="33" t="inlineStr">
+        <is>
+          <t>B1007451-</t>
+        </is>
+      </c>
+      <c r="V23" s="33" t="inlineStr">
+        <is>
+          <t>B2010696-</t>
+        </is>
+      </c>
+      <c r="W23" s="33" t="inlineStr">
+        <is>
+          <t>B2010436-</t>
+        </is>
+      </c>
+      <c r="X23" s="33" t="inlineStr">
+        <is>
+          <t>B2010437-</t>
+        </is>
+      </c>
+      <c r="Y23" s="33" t="inlineStr">
+        <is>
+          <t>B2000715-</t>
+        </is>
+      </c>
+      <c r="Z23" s="33" t="inlineStr">
+        <is>
+          <t>B2010432-</t>
+        </is>
+      </c>
+      <c r="AA23" s="33" t="inlineStr">
+        <is>
+          <t>B2000461-</t>
+        </is>
+      </c>
+      <c r="AB23" s="33" t="inlineStr">
+        <is>
+          <t>B1006363-</t>
+        </is>
+      </c>
+      <c r="AC23" s="33" t="inlineStr">
+        <is>
+          <t>B1000267-</t>
+        </is>
+      </c>
+      <c r="AD23" s="33" t="inlineStr">
+        <is>
+          <t>X1000278-</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="n"/>
-      <c r="B24" s="20" t="inlineStr">
+      <c r="A24" s="22" t="n"/>
+      <c r="B24" s="21" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>06272D</t>
+          <t>06021D</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>06271D</t>
+          <t>06022D</t>
         </is>
       </c>
       <c r="E24" s="11" t="inlineStr">
         <is>
-          <t>06252D</t>
+          <t>06041D</t>
         </is>
       </c>
       <c r="F24" s="11" t="inlineStr">
         <is>
-          <t>06251D</t>
+          <t>06042D</t>
         </is>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>06232D</t>
+          <t>06061D</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>06231D</t>
+          <t>06062D</t>
         </is>
       </c>
       <c r="I24" s="11" t="inlineStr">
         <is>
-          <t>06212D</t>
+          <t>06081D</t>
         </is>
       </c>
       <c r="J24" s="11" t="inlineStr">
         <is>
-          <t>06211D</t>
+          <t>06082D</t>
         </is>
       </c>
       <c r="K24" s="11" t="inlineStr">
         <is>
-          <t>06192D</t>
+          <t>06101D</t>
         </is>
       </c>
       <c r="L24" s="11" t="inlineStr">
         <is>
-          <t>06191D</t>
+          <t>06102D</t>
         </is>
       </c>
       <c r="M24" s="11" t="inlineStr">
         <is>
-          <t>06172D</t>
+          <t>06121D</t>
         </is>
       </c>
       <c r="N24" s="11" t="inlineStr">
         <is>
-          <t>06171D</t>
+          <t>06122D</t>
         </is>
       </c>
       <c r="O24" s="11" t="inlineStr">
         <is>
-          <t>06152D</t>
+          <t>06141D</t>
         </is>
       </c>
       <c r="P24" s="11" t="inlineStr">
         <is>
-          <t>06151D</t>
+          <t>06142D</t>
         </is>
       </c>
       <c r="Q24" s="11" t="inlineStr">
         <is>
-          <t>06132D</t>
+          <t>06161D</t>
         </is>
       </c>
       <c r="R24" s="11" t="inlineStr">
         <is>
-          <t>06131D</t>
+          <t>06162D</t>
         </is>
       </c>
       <c r="S24" s="11" t="inlineStr">
         <is>
-          <t>06112D</t>
+          <t>06181D</t>
         </is>
       </c>
       <c r="T24" s="11" t="inlineStr">
         <is>
-          <t>06111D</t>
+          <t>06182D</t>
         </is>
       </c>
       <c r="U24" s="11" t="inlineStr">
         <is>
-          <t>06092D</t>
+          <t>06201D</t>
         </is>
       </c>
       <c r="V24" s="11" t="inlineStr">
         <is>
-          <t>06091D</t>
+          <t>06202D</t>
         </is>
       </c>
       <c r="W24" s="11" t="inlineStr">
         <is>
-          <t>06072D</t>
+          <t>06221D</t>
         </is>
       </c>
       <c r="X24" s="11" t="inlineStr">
         <is>
-          <t>06071D</t>
+          <t>06222D</t>
         </is>
       </c>
       <c r="Y24" s="11" t="inlineStr">
         <is>
-          <t>06052D</t>
+          <t>06241D</t>
         </is>
       </c>
       <c r="Z24" s="11" t="inlineStr">
         <is>
-          <t>06051D</t>
+          <t>06242D</t>
         </is>
       </c>
       <c r="AA24" s="11" t="inlineStr">
         <is>
-          <t>06032D</t>
+          <t>06261D</t>
         </is>
       </c>
       <c r="AB24" s="11" t="inlineStr">
         <is>
-          <t>06031D</t>
+          <t>06262D</t>
         </is>
       </c>
       <c r="AC24" s="11" t="inlineStr">
         <is>
-          <t>06012D</t>
+          <t>06281D</t>
         </is>
       </c>
       <c r="AD24" s="11" t="inlineStr">
         <is>
-          <t>06011D</t>
+          <t>06282D</t>
         </is>
       </c>
     </row>
     <row r="25" ht="35" customHeight="1">
-      <c r="A25" s="32" t="n"/>
-      <c r="B25" s="34" t="n"/>
-      <c r="C25" s="34" t="inlineStr">
-        <is>
-          <t>T2000322-</t>
-        </is>
-      </c>
-      <c r="D25" s="34" t="inlineStr">
-        <is>
-          <t>B1007788-</t>
-        </is>
-      </c>
-      <c r="E25" s="34" t="inlineStr">
-        <is>
-          <t>b2009900-</t>
-        </is>
-      </c>
-      <c r="F25" s="34" t="inlineStr">
-        <is>
-          <t>t1000278-</t>
-        </is>
-      </c>
-      <c r="G25" s="34" t="inlineStr">
-        <is>
-          <t>B2011344-</t>
-        </is>
-      </c>
-      <c r="H25" s="34" t="inlineStr">
-        <is>
-          <t>B2011074-</t>
-        </is>
-      </c>
-      <c r="I25" s="34" t="inlineStr">
-        <is>
-          <t>B1009174-</t>
-        </is>
-      </c>
-      <c r="J25" s="34" t="inlineStr">
-        <is>
-          <t>B2000378-</t>
-        </is>
-      </c>
-      <c r="K25" s="34" t="inlineStr">
-        <is>
-          <t>T2001732-</t>
-        </is>
-      </c>
-      <c r="L25" s="34" t="inlineStr">
-        <is>
-          <t>B1004575-</t>
-        </is>
-      </c>
-      <c r="M25" s="34" t="inlineStr">
-        <is>
-          <t>B1007925-</t>
-        </is>
-      </c>
-      <c r="N25" s="34" t="inlineStr">
-        <is>
-          <t>t1001142-</t>
-        </is>
-      </c>
-      <c r="O25" s="34" t="inlineStr">
-        <is>
-          <t>T2001690-</t>
-        </is>
-      </c>
-      <c r="P25" s="34" t="inlineStr">
-        <is>
-          <t>T1000263-</t>
-        </is>
-      </c>
-      <c r="Q25" s="34" t="inlineStr">
-        <is>
-          <t>B2010272-</t>
-        </is>
-      </c>
-      <c r="R25" s="34" t="n"/>
-      <c r="S25" s="34" t="inlineStr">
-        <is>
-          <t>M1011225-</t>
-        </is>
-      </c>
-      <c r="T25" s="34" t="inlineStr">
-        <is>
-          <t>M1015668-</t>
-        </is>
-      </c>
-      <c r="U25" s="34" t="inlineStr">
-        <is>
-          <t>B2000013-</t>
-        </is>
-      </c>
-      <c r="V25" s="34" t="inlineStr">
-        <is>
-          <t>T2002995-</t>
-        </is>
-      </c>
-      <c r="W25" s="34" t="inlineStr">
-        <is>
-          <t>B2010269-</t>
-        </is>
-      </c>
-      <c r="X25" s="34" t="inlineStr">
-        <is>
-          <t>B2010076-</t>
-        </is>
-      </c>
-      <c r="Y25" s="34" t="inlineStr">
-        <is>
-          <t>B2000724-</t>
-        </is>
-      </c>
-      <c r="Z25" s="34" t="inlineStr">
-        <is>
-          <t>B2000721-</t>
-        </is>
-      </c>
-      <c r="AA25" s="34" t="inlineStr">
-        <is>
-          <t>P1234120-</t>
-        </is>
-      </c>
-      <c r="AB25" s="34" t="inlineStr">
-        <is>
-          <t>B2010163-</t>
-        </is>
-      </c>
-      <c r="AC25" s="34" t="inlineStr">
-        <is>
-          <t>B2010189-</t>
-        </is>
-      </c>
-      <c r="AD25" s="34" t="inlineStr">
-        <is>
-          <t>T2001409-</t>
+      <c r="A25" s="31" t="n"/>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="33" t="inlineStr">
+        <is>
+          <t>B1006398-</t>
+        </is>
+      </c>
+      <c r="D25" s="33" t="inlineStr">
+        <is>
+          <t>B1009052-</t>
+        </is>
+      </c>
+      <c r="E25" s="33" t="inlineStr">
+        <is>
+          <t>b2000335-</t>
+        </is>
+      </c>
+      <c r="F25" s="33" t="inlineStr">
+        <is>
+          <t>B1007396-</t>
+        </is>
+      </c>
+      <c r="G25" s="33" t="inlineStr">
+        <is>
+          <t>B2000346-</t>
+        </is>
+      </c>
+      <c r="H25" s="33" t="inlineStr">
+        <is>
+          <t>B2010071-</t>
+        </is>
+      </c>
+      <c r="I25" s="33" t="inlineStr">
+        <is>
+          <t>B2010457-</t>
+        </is>
+      </c>
+      <c r="J25" s="33" t="inlineStr">
+        <is>
+          <t>B2000314-</t>
+        </is>
+      </c>
+      <c r="K25" s="33" t="inlineStr">
+        <is>
+          <t>T2003180-</t>
+        </is>
+      </c>
+      <c r="L25" s="33" t="inlineStr">
+        <is>
+          <t>B2000375-</t>
+        </is>
+      </c>
+      <c r="M25" s="33" t="inlineStr">
+        <is>
+          <t>P1224711-</t>
+        </is>
+      </c>
+      <c r="N25" s="33" t="inlineStr">
+        <is>
+          <t>T2003075-</t>
+        </is>
+      </c>
+      <c r="O25" s="33" t="inlineStr">
+        <is>
+          <t>B2000087-</t>
+        </is>
+      </c>
+      <c r="P25" s="33" t="inlineStr">
+        <is>
+          <t>B2000621-</t>
+        </is>
+      </c>
+      <c r="Q25" s="33" t="inlineStr">
+        <is>
+          <t>P1076682-</t>
+        </is>
+      </c>
+      <c r="R25" s="33" t="inlineStr">
+        <is>
+          <t>P1234153-</t>
+        </is>
+      </c>
+      <c r="S25" s="33" t="inlineStr">
+        <is>
+          <t>B2010483-</t>
+        </is>
+      </c>
+      <c r="T25" s="33" t="inlineStr">
+        <is>
+          <t>B2011072-</t>
+        </is>
+      </c>
+      <c r="U25" s="33" t="inlineStr">
+        <is>
+          <t>B1006723-</t>
+        </is>
+      </c>
+      <c r="V25" s="33" t="inlineStr">
+        <is>
+          <t>m1016529-</t>
+        </is>
+      </c>
+      <c r="W25" s="33" t="inlineStr">
+        <is>
+          <t>P1229865-</t>
+        </is>
+      </c>
+      <c r="X25" s="33" t="inlineStr">
+        <is>
+          <t>B2010440-</t>
+        </is>
+      </c>
+      <c r="Y25" s="33" t="inlineStr">
+        <is>
+          <t>t2001456-</t>
+        </is>
+      </c>
+      <c r="Z25" s="33" t="inlineStr">
+        <is>
+          <t>t2001644-</t>
+        </is>
+      </c>
+      <c r="AA25" s="33" t="inlineStr">
+        <is>
+          <t>B2011361-</t>
+        </is>
+      </c>
+      <c r="AB25" s="33" t="inlineStr">
+        <is>
+          <t>b2010516-</t>
+        </is>
+      </c>
+      <c r="AC25" s="33" t="inlineStr">
+        <is>
+          <t>B1006385-</t>
+        </is>
+      </c>
+      <c r="AD25" s="33" t="inlineStr">
+        <is>
+          <t>T2001085-</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="n"/>
-      <c r="B26" s="20" t="inlineStr">
+      <c r="A26" s="22" t="n"/>
+      <c r="B26" s="21" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>06272C</t>
+          <t>06021C</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>06271C</t>
+          <t>06022C</t>
         </is>
       </c>
       <c r="E26" s="11" t="inlineStr">
         <is>
-          <t>06252C</t>
+          <t>06041C</t>
         </is>
       </c>
       <c r="F26" s="11" t="inlineStr">
         <is>
-          <t>06251C</t>
+          <t>06042C</t>
         </is>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t>06232C</t>
+          <t>06061C</t>
         </is>
       </c>
       <c r="H26" s="11" t="inlineStr">
         <is>
-          <t>06231C</t>
+          <t>06062C</t>
         </is>
       </c>
       <c r="I26" s="11" t="inlineStr">
         <is>
-          <t>06212C</t>
+          <t>06081C</t>
         </is>
       </c>
       <c r="J26" s="11" t="inlineStr">
         <is>
-          <t>06211C</t>
+          <t>06082C</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr">
         <is>
-          <t>06192C</t>
+          <t>06101C</t>
         </is>
       </c>
       <c r="L26" s="11" t="inlineStr">
         <is>
-          <t>06191C</t>
+          <t>06102C</t>
         </is>
       </c>
       <c r="M26" s="11" t="inlineStr">
         <is>
-          <t>06172C</t>
+          <t>06121C</t>
         </is>
       </c>
       <c r="N26" s="11" t="inlineStr">
         <is>
-          <t>06171C</t>
+          <t>06122C</t>
         </is>
       </c>
       <c r="O26" s="11" t="inlineStr">
         <is>
-          <t>06152C</t>
+          <t>06141C</t>
         </is>
       </c>
       <c r="P26" s="11" t="inlineStr">
         <is>
-          <t>06151C</t>
+          <t>06142C</t>
         </is>
       </c>
       <c r="Q26" s="11" t="inlineStr">
         <is>
-          <t>06132C</t>
+          <t>06161C</t>
         </is>
       </c>
       <c r="R26" s="11" t="inlineStr">
         <is>
-          <t>06131C</t>
+          <t>06162C</t>
         </is>
       </c>
       <c r="S26" s="11" t="inlineStr">
         <is>
-          <t>06112C</t>
+          <t>06181C</t>
         </is>
       </c>
       <c r="T26" s="11" t="inlineStr">
         <is>
-          <t>06111C</t>
+          <t>06182C</t>
         </is>
       </c>
       <c r="U26" s="11" t="inlineStr">
         <is>
-          <t>06092C</t>
+          <t>06201C</t>
         </is>
       </c>
       <c r="V26" s="11" t="inlineStr">
         <is>
-          <t>06091C</t>
+          <t>06202C</t>
         </is>
       </c>
       <c r="W26" s="11" t="inlineStr">
         <is>
-          <t>06072C</t>
+          <t>06221C</t>
         </is>
       </c>
       <c r="X26" s="11" t="inlineStr">
         <is>
-          <t>06071C</t>
+          <t>06222C</t>
         </is>
       </c>
       <c r="Y26" s="11" t="inlineStr">
         <is>
-          <t>06052C</t>
+          <t>06241C</t>
         </is>
       </c>
       <c r="Z26" s="11" t="inlineStr">
         <is>
-          <t>06051C</t>
+          <t>06242C</t>
         </is>
       </c>
       <c r="AA26" s="11" t="inlineStr">
         <is>
-          <t>06032C</t>
+          <t>06261C</t>
         </is>
       </c>
       <c r="AB26" s="11" t="inlineStr">
         <is>
-          <t>06031C</t>
+          <t>06262C</t>
         </is>
       </c>
       <c r="AC26" s="11" t="inlineStr">
         <is>
-          <t>06012C</t>
+          <t>06281C</t>
         </is>
       </c>
       <c r="AD26" s="11" t="inlineStr">
         <is>
-          <t>06011C</t>
+          <t>06282C</t>
         </is>
       </c>
     </row>
     <row r="27" ht="35" customHeight="1">
-      <c r="A27" s="32" t="n"/>
-      <c r="B27" s="34" t="n"/>
-      <c r="C27" s="34" t="inlineStr">
-        <is>
-          <t>b2000650-</t>
-        </is>
-      </c>
-      <c r="D27" s="34" t="n"/>
-      <c r="E27" s="34" t="n"/>
-      <c r="F27" s="34" t="inlineStr">
-        <is>
-          <t>b2000834-</t>
-        </is>
-      </c>
-      <c r="G27" s="34" t="inlineStr">
-        <is>
-          <t>B2010506-</t>
-        </is>
-      </c>
-      <c r="H27" s="36" t="inlineStr">
-        <is>
-          <t>B1006880-
-B2000111-</t>
-        </is>
-      </c>
-      <c r="I27" s="34" t="inlineStr">
-        <is>
-          <t>B1006405-</t>
-        </is>
-      </c>
-      <c r="J27" s="34" t="inlineStr">
-        <is>
-          <t>B1006402-</t>
-        </is>
-      </c>
-      <c r="K27" s="34" t="inlineStr">
-        <is>
-          <t>T1000017-</t>
-        </is>
-      </c>
-      <c r="L27" s="34" t="inlineStr">
-        <is>
-          <t>B1009271-</t>
-        </is>
-      </c>
-      <c r="M27" s="34" t="inlineStr">
-        <is>
-          <t>t2001130-</t>
-        </is>
-      </c>
-      <c r="N27" s="34" t="inlineStr">
-        <is>
-          <t>b1007909-</t>
-        </is>
-      </c>
-      <c r="O27" s="34" t="inlineStr">
-        <is>
-          <t>B1005017-</t>
-        </is>
-      </c>
-      <c r="P27" s="34" t="inlineStr">
-        <is>
-          <t>B2010911-</t>
-        </is>
-      </c>
-      <c r="Q27" s="36" t="inlineStr">
-        <is>
-          <t>B2010670-
-b2011075-</t>
-        </is>
-      </c>
-      <c r="R27" s="34" t="inlineStr">
-        <is>
-          <t>B1006404-</t>
-        </is>
-      </c>
-      <c r="S27" s="34" t="inlineStr">
-        <is>
-          <t>B2009917-</t>
-        </is>
-      </c>
-      <c r="T27" s="34" t="inlineStr">
-        <is>
-          <t>T2001612-</t>
-        </is>
-      </c>
-      <c r="U27" s="34" t="inlineStr">
-        <is>
-          <t>B1007388-</t>
-        </is>
-      </c>
-      <c r="V27" s="34" t="inlineStr">
-        <is>
-          <t>B1004221-</t>
-        </is>
-      </c>
-      <c r="W27" s="34" t="inlineStr">
-        <is>
-          <t>m1005013-</t>
-        </is>
-      </c>
-      <c r="X27" s="34" t="inlineStr">
-        <is>
-          <t>B2010329-</t>
-        </is>
-      </c>
-      <c r="Y27" s="34" t="inlineStr">
-        <is>
-          <t>B1006424-</t>
-        </is>
-      </c>
-      <c r="Z27" s="34" t="inlineStr">
-        <is>
-          <t>T2002719-</t>
-        </is>
-      </c>
-      <c r="AA27" s="34" t="inlineStr">
-        <is>
-          <t>B2000190-</t>
-        </is>
-      </c>
-      <c r="AB27" s="34" t="inlineStr">
-        <is>
-          <t>B1008759-</t>
-        </is>
-      </c>
-      <c r="AC27" s="34" t="n"/>
-      <c r="AD27" s="34" t="inlineStr">
-        <is>
-          <t>b1006638-</t>
+      <c r="A27" s="31" t="n"/>
+      <c r="B27" s="33" t="n"/>
+      <c r="C27" s="33" t="inlineStr">
+        <is>
+          <t>T2000083-</t>
+        </is>
+      </c>
+      <c r="D27" s="33" t="inlineStr">
+        <is>
+          <t>B2000606-</t>
+        </is>
+      </c>
+      <c r="E27" s="33" t="inlineStr">
+        <is>
+          <t>B2010063-</t>
+        </is>
+      </c>
+      <c r="F27" s="33" t="inlineStr">
+        <is>
+          <t>M1013437-</t>
+        </is>
+      </c>
+      <c r="G27" s="33" t="inlineStr">
+        <is>
+          <t>B2010257-</t>
+        </is>
+      </c>
+      <c r="H27" s="33" t="inlineStr">
+        <is>
+          <t>B2010039-</t>
+        </is>
+      </c>
+      <c r="I27" s="33" t="inlineStr">
+        <is>
+          <t>b2009918-</t>
+        </is>
+      </c>
+      <c r="J27" s="33" t="inlineStr">
+        <is>
+          <t>b1005530-</t>
+        </is>
+      </c>
+      <c r="K27" s="33" t="inlineStr">
+        <is>
+          <t>T1001009-</t>
+        </is>
+      </c>
+      <c r="L27" s="33" t="inlineStr">
+        <is>
+          <t>b2000912-</t>
+        </is>
+      </c>
+      <c r="M27" s="33" t="inlineStr">
+        <is>
+          <t>B1007395-</t>
+        </is>
+      </c>
+      <c r="N27" s="33" t="inlineStr">
+        <is>
+          <t>T2003021-</t>
+        </is>
+      </c>
+      <c r="O27" s="33" t="inlineStr">
+        <is>
+          <t>B1006364-</t>
+        </is>
+      </c>
+      <c r="P27" s="33" t="inlineStr">
+        <is>
+          <t>B2011080-</t>
+        </is>
+      </c>
+      <c r="Q27" s="33" t="n"/>
+      <c r="R27" s="33" t="inlineStr">
+        <is>
+          <t>P1210199-</t>
+        </is>
+      </c>
+      <c r="S27" s="33" t="inlineStr">
+        <is>
+          <t>B1007243-</t>
+        </is>
+      </c>
+      <c r="T27" s="33" t="inlineStr">
+        <is>
+          <t>B2000448-</t>
+        </is>
+      </c>
+      <c r="U27" s="33" t="inlineStr">
+        <is>
+          <t>T2001714-</t>
+        </is>
+      </c>
+      <c r="V27" s="33" t="inlineStr">
+        <is>
+          <t>B2011055-</t>
+        </is>
+      </c>
+      <c r="W27" s="33" t="inlineStr">
+        <is>
+          <t>b1008234-</t>
+        </is>
+      </c>
+      <c r="X27" s="33" t="inlineStr">
+        <is>
+          <t>b1004652-</t>
+        </is>
+      </c>
+      <c r="Y27" s="33" t="inlineStr">
+        <is>
+          <t>T2001541-</t>
+        </is>
+      </c>
+      <c r="Z27" s="33" t="inlineStr">
+        <is>
+          <t>t2001248-</t>
+        </is>
+      </c>
+      <c r="AA27" s="33" t="inlineStr">
+        <is>
+          <t>B2010792-</t>
+        </is>
+      </c>
+      <c r="AB27" s="35" t="inlineStr">
+        <is>
+          <t>B1007135-
+b1008888-</t>
+        </is>
+      </c>
+      <c r="AC27" s="33" t="inlineStr">
+        <is>
+          <t>B2011546-</t>
+        </is>
+      </c>
+      <c r="AD27" s="33" t="inlineStr">
+        <is>
+          <t>M1015564-</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21" t="n"/>
-      <c r="B28" s="20" t="inlineStr">
+      <c r="A28" s="22" t="n"/>
+      <c r="B28" s="21" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>06272B</t>
+          <t>06021B</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>06271B</t>
+          <t>06022B</t>
         </is>
       </c>
       <c r="E28" s="11" t="inlineStr">
         <is>
-          <t>06252B</t>
+          <t>06041B</t>
         </is>
       </c>
       <c r="F28" s="11" t="inlineStr">
         <is>
-          <t>06251B</t>
+          <t>06042B</t>
         </is>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
-          <t>06232B</t>
+          <t>06061B</t>
         </is>
       </c>
       <c r="H28" s="11" t="inlineStr">
         <is>
-          <t>06231B</t>
+          <t>06062B</t>
         </is>
       </c>
       <c r="I28" s="11" t="inlineStr">
         <is>
-          <t>06212B</t>
+          <t>06081B</t>
         </is>
       </c>
       <c r="J28" s="11" t="inlineStr">
         <is>
-          <t>06211B</t>
+          <t>06082B</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr">
         <is>
-          <t>06192B</t>
+          <t>06101B</t>
         </is>
       </c>
       <c r="L28" s="11" t="inlineStr">
         <is>
-          <t>06191B</t>
+          <t>06102B</t>
         </is>
       </c>
       <c r="M28" s="11" t="inlineStr">
         <is>
-          <t>06172B</t>
+          <t>06121B</t>
         </is>
       </c>
       <c r="N28" s="11" t="inlineStr">
         <is>
-          <t>06171B</t>
+          <t>06122B</t>
         </is>
       </c>
       <c r="O28" s="11" t="inlineStr">
         <is>
-          <t>06152B</t>
+          <t>06141B</t>
         </is>
       </c>
       <c r="P28" s="11" t="inlineStr">
         <is>
-          <t>06151B</t>
+          <t>06142B</t>
         </is>
       </c>
       <c r="Q28" s="11" t="inlineStr">
         <is>
-          <t>06132B</t>
+          <t>06161B</t>
         </is>
       </c>
       <c r="R28" s="11" t="inlineStr">
         <is>
-          <t>06131B</t>
+          <t>06162B</t>
         </is>
       </c>
       <c r="S28" s="11" t="inlineStr">
         <is>
-          <t>06112B</t>
+          <t>06181B</t>
         </is>
       </c>
       <c r="T28" s="11" t="inlineStr">
         <is>
-          <t>06111B</t>
+          <t>06182B</t>
         </is>
       </c>
       <c r="U28" s="11" t="inlineStr">
         <is>
-          <t>06092B</t>
+          <t>06201B</t>
         </is>
       </c>
       <c r="V28" s="11" t="inlineStr">
         <is>
-          <t>06091B</t>
+          <t>06202B</t>
         </is>
       </c>
       <c r="W28" s="11" t="inlineStr">
         <is>
-          <t>06072B</t>
+          <t>06221B</t>
         </is>
       </c>
       <c r="X28" s="11" t="inlineStr">
         <is>
-          <t>06071B</t>
+          <t>06222B</t>
         </is>
       </c>
       <c r="Y28" s="11" t="inlineStr">
         <is>
-          <t>06052B</t>
+          <t>06241B</t>
         </is>
       </c>
       <c r="Z28" s="11" t="inlineStr">
         <is>
-          <t>06051B</t>
+          <t>06242B</t>
         </is>
       </c>
       <c r="AA28" s="11" t="inlineStr">
         <is>
-          <t>06032B</t>
+          <t>06261B</t>
         </is>
       </c>
       <c r="AB28" s="11" t="inlineStr">
         <is>
-          <t>06031B</t>
+          <t>06262B</t>
         </is>
       </c>
       <c r="AC28" s="11" t="inlineStr">
         <is>
-          <t>06012B</t>
+          <t>06281B</t>
         </is>
       </c>
       <c r="AD28" s="11" t="inlineStr">
         <is>
-          <t>06011B</t>
+          <t>06282B</t>
         </is>
       </c>
     </row>
     <row r="29" ht="35" customHeight="1">
-      <c r="A29" s="32" t="n"/>
-      <c r="B29" s="34" t="n"/>
-      <c r="C29" s="34" t="inlineStr">
-        <is>
-          <t>B1004250-</t>
-        </is>
-      </c>
-      <c r="D29" s="34" t="inlineStr">
-        <is>
-          <t>B2010505-</t>
-        </is>
-      </c>
-      <c r="E29" s="34" t="inlineStr">
-        <is>
-          <t>B2010312-</t>
-        </is>
-      </c>
-      <c r="F29" s="34" t="inlineStr">
-        <is>
-          <t>B2010294-</t>
-        </is>
-      </c>
-      <c r="G29" s="34" t="inlineStr">
-        <is>
-          <t>b1008827-</t>
-        </is>
-      </c>
-      <c r="H29" s="34" t="inlineStr">
-        <is>
-          <t>b1008428-</t>
-        </is>
-      </c>
-      <c r="I29" s="34" t="inlineStr">
-        <is>
-          <t>B1009189-</t>
-        </is>
-      </c>
-      <c r="J29" s="34" t="inlineStr">
-        <is>
-          <t>B2000605-</t>
-        </is>
-      </c>
-      <c r="K29" s="34" t="inlineStr">
-        <is>
-          <t>T1000752-</t>
-        </is>
-      </c>
-      <c r="L29" s="34" t="inlineStr">
-        <is>
-          <t>B1006200-</t>
-        </is>
-      </c>
-      <c r="M29" s="34" t="inlineStr">
-        <is>
-          <t>t2001029-</t>
-        </is>
-      </c>
-      <c r="N29" s="34" t="inlineStr">
-        <is>
-          <t>B2000803-</t>
-        </is>
-      </c>
-      <c r="O29" s="34" t="inlineStr">
-        <is>
-          <t>t2001245-</t>
-        </is>
-      </c>
-      <c r="P29" s="34" t="inlineStr">
-        <is>
-          <t>b2011114-</t>
-        </is>
-      </c>
-      <c r="Q29" s="34" t="n"/>
-      <c r="R29" s="34" t="inlineStr">
-        <is>
-          <t>b2000691-</t>
-        </is>
-      </c>
-      <c r="S29" s="34" t="inlineStr">
-        <is>
-          <t>T1000324-</t>
-        </is>
-      </c>
-      <c r="T29" s="34" t="inlineStr">
-        <is>
-          <t>B1009044-</t>
-        </is>
-      </c>
-      <c r="U29" s="34" t="inlineStr">
-        <is>
-          <t>M1008300-</t>
-        </is>
-      </c>
-      <c r="V29" s="34" t="inlineStr">
-        <is>
-          <t>B1008820-</t>
-        </is>
-      </c>
-      <c r="W29" s="34" t="inlineStr">
-        <is>
-          <t>B1008419-</t>
-        </is>
-      </c>
-      <c r="X29" s="34" t="n"/>
-      <c r="Y29" s="34" t="inlineStr">
-        <is>
-          <t>B1006135-</t>
-        </is>
-      </c>
-      <c r="Z29" s="34" t="inlineStr">
-        <is>
-          <t>B2000018-</t>
-        </is>
-      </c>
-      <c r="AA29" s="34" t="inlineStr">
-        <is>
-          <t>B1005950-</t>
-        </is>
-      </c>
-      <c r="AB29" s="34" t="inlineStr">
-        <is>
-          <t>B1008630-</t>
-        </is>
-      </c>
-      <c r="AC29" s="34" t="inlineStr">
-        <is>
-          <t>B1009000-</t>
-        </is>
-      </c>
-      <c r="AD29" s="36" t="inlineStr">
-        <is>
-          <t>B2010448-
-Rw200525-</t>
+      <c r="A29" s="31" t="n"/>
+      <c r="B29" s="33" t="n"/>
+      <c r="C29" s="35" t="inlineStr">
+        <is>
+          <t>X1000074-
+rw200521-</t>
+        </is>
+      </c>
+      <c r="D29" s="33" t="inlineStr">
+        <is>
+          <t>B1008803-</t>
+        </is>
+      </c>
+      <c r="E29" s="33" t="inlineStr">
+        <is>
+          <t>B2010564-</t>
+        </is>
+      </c>
+      <c r="F29" s="33" t="inlineStr">
+        <is>
+          <t>B1009016-</t>
+        </is>
+      </c>
+      <c r="G29" s="33" t="inlineStr">
+        <is>
+          <t>B2011267-</t>
+        </is>
+      </c>
+      <c r="H29" s="33" t="inlineStr">
+        <is>
+          <t>P1232704-</t>
+        </is>
+      </c>
+      <c r="I29" s="33" t="inlineStr">
+        <is>
+          <t>t2001161-</t>
+        </is>
+      </c>
+      <c r="J29" s="33" t="inlineStr">
+        <is>
+          <t>T2003405-</t>
+        </is>
+      </c>
+      <c r="K29" s="33" t="inlineStr">
+        <is>
+          <t>P1224736-</t>
+        </is>
+      </c>
+      <c r="L29" s="33" t="inlineStr">
+        <is>
+          <t>B2000071-</t>
+        </is>
+      </c>
+      <c r="M29" s="33" t="inlineStr">
+        <is>
+          <t>T2003025-</t>
+        </is>
+      </c>
+      <c r="N29" s="33" t="inlineStr">
+        <is>
+          <t>M1015736-</t>
+        </is>
+      </c>
+      <c r="O29" s="33" t="inlineStr">
+        <is>
+          <t>T2001753-</t>
+        </is>
+      </c>
+      <c r="P29" s="33" t="inlineStr">
+        <is>
+          <t>B1004999-</t>
+        </is>
+      </c>
+      <c r="Q29" s="33" t="inlineStr">
+        <is>
+          <t>T1000963-</t>
+        </is>
+      </c>
+      <c r="R29" s="33" t="inlineStr">
+        <is>
+          <t>b1007521-</t>
+        </is>
+      </c>
+      <c r="S29" s="33" t="inlineStr">
+        <is>
+          <t>B1009036-</t>
+        </is>
+      </c>
+      <c r="T29" s="33" t="inlineStr">
+        <is>
+          <t>B2010202-</t>
+        </is>
+      </c>
+      <c r="U29" s="33" t="inlineStr">
+        <is>
+          <t>m1012554-</t>
+        </is>
+      </c>
+      <c r="V29" s="33" t="inlineStr">
+        <is>
+          <t>b1008596-</t>
+        </is>
+      </c>
+      <c r="W29" s="33" t="inlineStr">
+        <is>
+          <t>B2011204-</t>
+        </is>
+      </c>
+      <c r="X29" s="33" t="inlineStr">
+        <is>
+          <t>B2010460-</t>
+        </is>
+      </c>
+      <c r="Y29" s="33" t="inlineStr">
+        <is>
+          <t>M1012545-</t>
+        </is>
+      </c>
+      <c r="Z29" s="33" t="inlineStr">
+        <is>
+          <t>B1000214-</t>
+        </is>
+      </c>
+      <c r="AA29" s="33" t="inlineStr">
+        <is>
+          <t>t2001318-</t>
+        </is>
+      </c>
+      <c r="AB29" s="33" t="inlineStr">
+        <is>
+          <t>M1016847-</t>
+        </is>
+      </c>
+      <c r="AC29" s="33" t="inlineStr">
+        <is>
+          <t>B2000273-</t>
+        </is>
+      </c>
+      <c r="AD29" s="33" t="inlineStr">
+        <is>
+          <t>B2011270-</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21" t="n"/>
-      <c r="B30" s="20" t="n"/>
-      <c r="C30" s="19" t="n"/>
-      <c r="D30" s="19" t="n"/>
-      <c r="E30" s="19" t="n"/>
-      <c r="F30" s="19" t="n"/>
-      <c r="G30" s="19" t="n"/>
-      <c r="H30" s="19" t="n"/>
-      <c r="I30" s="19" t="n"/>
-      <c r="J30" s="19" t="n"/>
-      <c r="K30" s="19" t="n"/>
-      <c r="L30" s="19" t="n"/>
-      <c r="M30" s="19" t="n"/>
-      <c r="N30" s="19" t="n"/>
-      <c r="O30" s="19" t="n"/>
-      <c r="P30" s="19" t="n"/>
-      <c r="Q30" s="19" t="n"/>
-      <c r="R30" s="19" t="n"/>
-      <c r="S30" s="19" t="n"/>
-      <c r="T30" s="19" t="n"/>
-      <c r="U30" s="19" t="n"/>
-      <c r="V30" s="19" t="n"/>
-      <c r="W30" s="19" t="n"/>
-      <c r="X30" s="19" t="n"/>
-      <c r="Y30" s="19" t="n"/>
-      <c r="Z30" s="19" t="n"/>
-      <c r="AA30" s="19" t="n"/>
-      <c r="AB30" s="19" t="n"/>
-      <c r="AC30" s="19" t="n"/>
-      <c r="AD30" s="19" t="n"/>
+      <c r="A30" s="22" t="n"/>
+      <c r="B30" s="21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C30" s="20" t="n"/>
+      <c r="D30" s="20" t="n"/>
+      <c r="E30" s="20" t="n"/>
+      <c r="F30" s="20" t="n"/>
+      <c r="G30" s="20" t="n"/>
+      <c r="H30" s="20" t="n"/>
+      <c r="I30" s="20" t="n"/>
+      <c r="J30" s="20" t="n"/>
+      <c r="K30" s="20" t="n"/>
+      <c r="L30" s="20" t="n"/>
+      <c r="M30" s="20" t="n"/>
+      <c r="N30" s="20" t="n"/>
+      <c r="O30" s="20" t="n"/>
+      <c r="P30" s="20" t="n"/>
+      <c r="Q30" s="20" t="n"/>
+      <c r="R30" s="20" t="n"/>
+      <c r="S30" s="20" t="n"/>
+      <c r="T30" s="20" t="n"/>
+      <c r="U30" s="20" t="n"/>
+      <c r="V30" s="20" t="n"/>
+      <c r="W30" s="20" t="n"/>
+      <c r="X30" s="20" t="n"/>
+      <c r="Y30" s="20" t="n"/>
+      <c r="Z30" s="20" t="n"/>
+      <c r="AA30" s="20" t="n"/>
+      <c r="AB30" s="20" t="n"/>
+      <c r="AC30" s="20" t="n"/>
+      <c r="AD30" s="20" t="n"/>
     </row>
     <row r="31" ht="35" customHeight="1">
-      <c r="A31" s="37" t="n"/>
-      <c r="B31" s="34" t="n"/>
-      <c r="C31" s="33" t="n"/>
-      <c r="D31" s="33" t="n"/>
-      <c r="E31" s="33" t="n"/>
-      <c r="F31" s="33" t="n"/>
-      <c r="G31" s="33" t="n"/>
-      <c r="H31" s="33" t="n"/>
-      <c r="I31" s="33" t="n"/>
-      <c r="J31" s="33" t="n"/>
-      <c r="K31" s="33" t="n"/>
-      <c r="L31" s="33" t="n"/>
-      <c r="M31" s="33" t="n"/>
-      <c r="N31" s="33" t="n"/>
-      <c r="O31" s="33" t="n"/>
-      <c r="P31" s="33" t="n"/>
-      <c r="Q31" s="33" t="n"/>
-      <c r="R31" s="33" t="n"/>
-      <c r="S31" s="33" t="n"/>
-      <c r="T31" s="33" t="n"/>
-      <c r="U31" s="33" t="n"/>
-      <c r="V31" s="33" t="n"/>
-      <c r="W31" s="33" t="n"/>
-      <c r="X31" s="33" t="n"/>
-      <c r="Y31" s="33" t="n"/>
-      <c r="Z31" s="33" t="n"/>
-      <c r="AA31" s="33" t="n"/>
-      <c r="AB31" s="33" t="n"/>
-      <c r="AC31" s="33" t="n"/>
-      <c r="AD31" s="33" t="n"/>
+      <c r="A31" s="34" t="n"/>
+      <c r="B31" s="33" t="n"/>
+      <c r="C31" s="32" t="n"/>
+      <c r="D31" s="32" t="n"/>
+      <c r="E31" s="32" t="n"/>
+      <c r="F31" s="32" t="n"/>
+      <c r="G31" s="32" t="n"/>
+      <c r="H31" s="32" t="n"/>
+      <c r="I31" s="32" t="n"/>
+      <c r="J31" s="32" t="n"/>
+      <c r="K31" s="32" t="n"/>
+      <c r="L31" s="32" t="n"/>
+      <c r="M31" s="32" t="n"/>
+      <c r="N31" s="32" t="n"/>
+      <c r="O31" s="32" t="n"/>
+      <c r="P31" s="32" t="n"/>
+      <c r="Q31" s="32" t="n"/>
+      <c r="R31" s="32" t="n"/>
+      <c r="S31" s="32" t="n"/>
+      <c r="T31" s="32" t="n"/>
+      <c r="U31" s="32" t="n"/>
+      <c r="V31" s="32" t="n"/>
+      <c r="W31" s="32" t="n"/>
+      <c r="X31" s="32" t="n"/>
+      <c r="Y31" s="32" t="n"/>
+      <c r="Z31" s="32" t="n"/>
+      <c r="AA31" s="32" t="n"/>
+      <c r="AB31" s="32" t="n"/>
+      <c r="AC31" s="32" t="n"/>
+      <c r="AD31" s="32" t="n"/>
     </row>
     <row r="32" ht="21" customHeight="1">
       <c r="A32" s="13" t="n"/>
